--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,18 @@
     <t>['35', '45+1', '48', '87']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['22', '41']</t>
+  </si>
+  <si>
+    <t>['43', '90+7']</t>
+  </si>
+  <si>
+    <t>['32', '90+1']</t>
+  </si>
+  <si>
     <t>['45+1', '81']</t>
   </si>
   <si>
@@ -434,6 +446,18 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['29', '66']</t>
+  </si>
+  <si>
+    <t>['16', '47', '90+4']</t>
+  </si>
+  <si>
+    <t>['37', '88']</t>
+  </si>
+  <si>
+    <t>['8', '11', '62', '88']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1078,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1341,7 +1365,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1544,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>2.2</v>
@@ -1672,7 +1696,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1956,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2368,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2496,7 +2520,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2574,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -2780,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2908,7 +2932,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -2986,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>2.05</v>
@@ -3114,7 +3138,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3195,7 +3219,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>1.77</v>
@@ -3320,7 +3344,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3398,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
         <v>1.8</v>
@@ -3526,7 +3550,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3732,7 +3756,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -3938,7 +3962,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4016,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
         <v>2.2</v>
@@ -4144,7 +4168,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4222,10 +4246,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR17">
         <v>1.58</v>
@@ -4350,7 +4374,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4431,7 +4455,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>2.63</v>
@@ -4634,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>2.01</v>
@@ -4762,7 +4786,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -4840,10 +4864,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
         <v>0.9</v>
@@ -4968,7 +4992,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5046,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ21">
         <v>0.6</v>
@@ -5380,7 +5404,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5667,7 +5691,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>1.36</v>
@@ -5792,7 +5816,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -5998,7 +6022,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6076,10 +6100,10 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.55</v>
@@ -6282,7 +6306,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>1.2</v>
@@ -6410,7 +6434,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6491,7 +6515,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR28">
         <v>1.81</v>
@@ -6694,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.6</v>
@@ -6822,7 +6846,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -6903,7 +6927,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.87</v>
@@ -7028,7 +7052,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7106,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7234,7 +7258,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7312,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32">
         <v>1.8</v>
@@ -7646,7 +7670,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -7727,7 +7751,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR34">
         <v>1.64</v>
@@ -7933,7 +7957,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8136,10 +8160,10 @@
         <v>2.33</v>
       </c>
       <c r="AP36">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR36">
         <v>1.81</v>
@@ -8264,7 +8288,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8342,10 +8366,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.78</v>
@@ -8551,7 +8575,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ38">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR38">
         <v>1.99</v>
@@ -8754,7 +8778,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ39">
         <v>1.2</v>
@@ -8882,7 +8906,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8960,10 +8984,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -9088,7 +9112,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9500,7 +9524,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9912,7 +9936,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10118,7 +10142,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10199,7 +10223,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ46">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10275,6 +10299,1036 @@
       </c>
       <c r="BP46">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7775661</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45765.65625</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>113</v>
+      </c>
+      <c r="P47" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q47">
+        <v>2.05</v>
+      </c>
+      <c r="R47">
+        <v>2.22</v>
+      </c>
+      <c r="S47">
+        <v>5.4</v>
+      </c>
+      <c r="T47">
+        <v>1.38</v>
+      </c>
+      <c r="U47">
+        <v>2.8</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.46</v>
+      </c>
+      <c r="X47">
+        <v>6.55</v>
+      </c>
+      <c r="Y47">
+        <v>1.08</v>
+      </c>
+      <c r="Z47">
+        <v>1.49</v>
+      </c>
+      <c r="AA47">
+        <v>3.9</v>
+      </c>
+      <c r="AB47">
+        <v>5.5</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>10.5</v>
+      </c>
+      <c r="AE47">
+        <v>1.24</v>
+      </c>
+      <c r="AF47">
+        <v>3.55</v>
+      </c>
+      <c r="AG47">
+        <v>1.9</v>
+      </c>
+      <c r="AH47">
+        <v>1.85</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.76</v>
+      </c>
+      <c r="AK47">
+        <v>1.11</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>2.5</v>
+      </c>
+      <c r="AN47">
+        <v>1.5</v>
+      </c>
+      <c r="AO47">
+        <v>0.25</v>
+      </c>
+      <c r="AP47">
+        <v>1.8</v>
+      </c>
+      <c r="AQ47">
+        <v>0.2</v>
+      </c>
+      <c r="AR47">
+        <v>1.97</v>
+      </c>
+      <c r="AS47">
+        <v>1.05</v>
+      </c>
+      <c r="AT47">
+        <v>3.02</v>
+      </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>11</v>
+      </c>
+      <c r="AX47">
+        <v>11</v>
+      </c>
+      <c r="AY47">
+        <v>17</v>
+      </c>
+      <c r="AZ47">
+        <v>17</v>
+      </c>
+      <c r="BA47">
+        <v>14</v>
+      </c>
+      <c r="BB47">
+        <v>10</v>
+      </c>
+      <c r="BC47">
+        <v>24</v>
+      </c>
+      <c r="BD47">
+        <v>1.43</v>
+      </c>
+      <c r="BE47">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF47">
+        <v>3.98</v>
+      </c>
+      <c r="BG47">
+        <v>1.25</v>
+      </c>
+      <c r="BH47">
+        <v>3.86</v>
+      </c>
+      <c r="BI47">
+        <v>1.38</v>
+      </c>
+      <c r="BJ47">
+        <v>2.7</v>
+      </c>
+      <c r="BK47">
+        <v>1.67</v>
+      </c>
+      <c r="BL47">
+        <v>2.1</v>
+      </c>
+      <c r="BM47">
+        <v>2.05</v>
+      </c>
+      <c r="BN47">
+        <v>1.7</v>
+      </c>
+      <c r="BO47">
+        <v>2.74</v>
+      </c>
+      <c r="BP47">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7775662</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45765.65625</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>114</v>
+      </c>
+      <c r="P48" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q48">
+        <v>3.88</v>
+      </c>
+      <c r="R48">
+        <v>1.7</v>
+      </c>
+      <c r="S48">
+        <v>3.4</v>
+      </c>
+      <c r="T48">
+        <v>1.58</v>
+      </c>
+      <c r="U48">
+        <v>2.23</v>
+      </c>
+      <c r="V48">
+        <v>3.58</v>
+      </c>
+      <c r="W48">
+        <v>1.21</v>
+      </c>
+      <c r="X48">
+        <v>10.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.04</v>
+      </c>
+      <c r="Z48">
+        <v>2.89</v>
+      </c>
+      <c r="AA48">
+        <v>2.88</v>
+      </c>
+      <c r="AB48">
+        <v>2.5</v>
+      </c>
+      <c r="AC48">
+        <v>1.09</v>
+      </c>
+      <c r="AD48">
+        <v>5.8</v>
+      </c>
+      <c r="AE48">
+        <v>1.6</v>
+      </c>
+      <c r="AF48">
+        <v>2.38</v>
+      </c>
+      <c r="AG48">
+        <v>2.6</v>
+      </c>
+      <c r="AH48">
+        <v>1.42</v>
+      </c>
+      <c r="AI48">
+        <v>2.17</v>
+      </c>
+      <c r="AJ48">
+        <v>1.66</v>
+      </c>
+      <c r="AK48">
+        <v>1.43</v>
+      </c>
+      <c r="AL48">
+        <v>1.33</v>
+      </c>
+      <c r="AM48">
+        <v>1.4</v>
+      </c>
+      <c r="AN48">
+        <v>1.75</v>
+      </c>
+      <c r="AO48">
+        <v>2</v>
+      </c>
+      <c r="AP48">
+        <v>1.6</v>
+      </c>
+      <c r="AQ48">
+        <v>1.8</v>
+      </c>
+      <c r="AR48">
+        <v>1.51</v>
+      </c>
+      <c r="AS48">
+        <v>1.53</v>
+      </c>
+      <c r="AT48">
+        <v>3.04</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>7</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>20</v>
+      </c>
+      <c r="AY48">
+        <v>6</v>
+      </c>
+      <c r="AZ48">
+        <v>27</v>
+      </c>
+      <c r="BA48">
+        <v>1</v>
+      </c>
+      <c r="BB48">
+        <v>10</v>
+      </c>
+      <c r="BC48">
+        <v>11</v>
+      </c>
+      <c r="BD48">
+        <v>2.26</v>
+      </c>
+      <c r="BE48">
+        <v>6.4</v>
+      </c>
+      <c r="BF48">
+        <v>1.98</v>
+      </c>
+      <c r="BG48">
+        <v>1.34</v>
+      </c>
+      <c r="BH48">
+        <v>2.73</v>
+      </c>
+      <c r="BI48">
+        <v>1.69</v>
+      </c>
+      <c r="BJ48">
+        <v>2.11</v>
+      </c>
+      <c r="BK48">
+        <v>2.13</v>
+      </c>
+      <c r="BL48">
+        <v>1.68</v>
+      </c>
+      <c r="BM48">
+        <v>2.68</v>
+      </c>
+      <c r="BN48">
+        <v>1.41</v>
+      </c>
+      <c r="BO48">
+        <v>3.58</v>
+      </c>
+      <c r="BP48">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7775663</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45765.65625</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q49">
+        <v>3.55</v>
+      </c>
+      <c r="R49">
+        <v>1.85</v>
+      </c>
+      <c r="S49">
+        <v>3.8</v>
+      </c>
+      <c r="T49">
+        <v>1.65</v>
+      </c>
+      <c r="U49">
+        <v>2.06</v>
+      </c>
+      <c r="V49">
+        <v>4</v>
+      </c>
+      <c r="W49">
+        <v>1.18</v>
+      </c>
+      <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Y49">
+        <v>1.03</v>
+      </c>
+      <c r="Z49">
+        <v>2.6</v>
+      </c>
+      <c r="AA49">
+        <v>2.8</v>
+      </c>
+      <c r="AB49">
+        <v>2.88</v>
+      </c>
+      <c r="AC49">
+        <v>1.15</v>
+      </c>
+      <c r="AD49">
+        <v>6</v>
+      </c>
+      <c r="AE49">
+        <v>1.72</v>
+      </c>
+      <c r="AF49">
+        <v>2.1</v>
+      </c>
+      <c r="AG49">
+        <v>2.9</v>
+      </c>
+      <c r="AH49">
+        <v>1.38</v>
+      </c>
+      <c r="AI49">
+        <v>2.49</v>
+      </c>
+      <c r="AJ49">
+        <v>1.51</v>
+      </c>
+      <c r="AK49">
+        <v>1.46</v>
+      </c>
+      <c r="AL49">
+        <v>1.33</v>
+      </c>
+      <c r="AM49">
+        <v>1.46</v>
+      </c>
+      <c r="AN49">
+        <v>1.75</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>1.4</v>
+      </c>
+      <c r="AQ49">
+        <v>1.4</v>
+      </c>
+      <c r="AR49">
+        <v>1.6</v>
+      </c>
+      <c r="AS49">
+        <v>1.04</v>
+      </c>
+      <c r="AT49">
+        <v>2.64</v>
+      </c>
+      <c r="AU49">
+        <v>6</v>
+      </c>
+      <c r="AV49">
+        <v>7</v>
+      </c>
+      <c r="AW49">
+        <v>11</v>
+      </c>
+      <c r="AX49">
+        <v>8</v>
+      </c>
+      <c r="AY49">
+        <v>17</v>
+      </c>
+      <c r="AZ49">
+        <v>15</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>4</v>
+      </c>
+      <c r="BC49">
+        <v>8</v>
+      </c>
+      <c r="BD49">
+        <v>2.05</v>
+      </c>
+      <c r="BE49">
+        <v>6.9</v>
+      </c>
+      <c r="BF49">
+        <v>1.88</v>
+      </c>
+      <c r="BG49">
+        <v>1.4</v>
+      </c>
+      <c r="BH49">
+        <v>2.56</v>
+      </c>
+      <c r="BI49">
+        <v>1.81</v>
+      </c>
+      <c r="BJ49">
+        <v>1.94</v>
+      </c>
+      <c r="BK49">
+        <v>2.3</v>
+      </c>
+      <c r="BL49">
+        <v>1.55</v>
+      </c>
+      <c r="BM49">
+        <v>3.08</v>
+      </c>
+      <c r="BN49">
+        <v>1.3</v>
+      </c>
+      <c r="BO49">
+        <v>4.4</v>
+      </c>
+      <c r="BP49">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7775664</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45765.65625</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>116</v>
+      </c>
+      <c r="P50" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q50">
+        <v>3.7</v>
+      </c>
+      <c r="R50">
+        <v>1.86</v>
+      </c>
+      <c r="S50">
+        <v>3.35</v>
+      </c>
+      <c r="T50">
+        <v>1.55</v>
+      </c>
+      <c r="U50">
+        <v>2.29</v>
+      </c>
+      <c r="V50">
+        <v>3.5</v>
+      </c>
+      <c r="W50">
+        <v>1.26</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>2.62</v>
+      </c>
+      <c r="AA50">
+        <v>2.9</v>
+      </c>
+      <c r="AB50">
+        <v>2.63</v>
+      </c>
+      <c r="AC50">
+        <v>1.12</v>
+      </c>
+      <c r="AD50">
+        <v>6.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.5</v>
+      </c>
+      <c r="AF50">
+        <v>2.5</v>
+      </c>
+      <c r="AG50">
+        <v>2.5</v>
+      </c>
+      <c r="AH50">
+        <v>1.51</v>
+      </c>
+      <c r="AI50">
+        <v>2.16</v>
+      </c>
+      <c r="AJ50">
+        <v>1.7</v>
+      </c>
+      <c r="AK50">
+        <v>1.4</v>
+      </c>
+      <c r="AL50">
+        <v>1.39</v>
+      </c>
+      <c r="AM50">
+        <v>1.43</v>
+      </c>
+      <c r="AN50">
+        <v>2.2</v>
+      </c>
+      <c r="AO50">
+        <v>1.4</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>1.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.81</v>
+      </c>
+      <c r="AS50">
+        <v>1.71</v>
+      </c>
+      <c r="AT50">
+        <v>3.52</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>6</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>7</v>
+      </c>
+      <c r="AY50">
+        <v>9</v>
+      </c>
+      <c r="AZ50">
+        <v>13</v>
+      </c>
+      <c r="BA50">
+        <v>5</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>7</v>
+      </c>
+      <c r="BD50">
+        <v>1.65</v>
+      </c>
+      <c r="BE50">
+        <v>8.5</v>
+      </c>
+      <c r="BF50">
+        <v>2.5</v>
+      </c>
+      <c r="BG50">
+        <v>1.22</v>
+      </c>
+      <c r="BH50">
+        <v>3.5</v>
+      </c>
+      <c r="BI50">
+        <v>1.43</v>
+      </c>
+      <c r="BJ50">
+        <v>2.54</v>
+      </c>
+      <c r="BK50">
+        <v>2.04</v>
+      </c>
+      <c r="BL50">
+        <v>1.93</v>
+      </c>
+      <c r="BM50">
+        <v>2.25</v>
+      </c>
+      <c r="BN50">
+        <v>1.6</v>
+      </c>
+      <c r="BO50">
+        <v>2.7</v>
+      </c>
+      <c r="BP50">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7775665</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45765.65625</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>82</v>
+      </c>
+      <c r="P51" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q51">
+        <v>2.6</v>
+      </c>
+      <c r="R51">
+        <v>2.23</v>
+      </c>
+      <c r="S51">
+        <v>3.9</v>
+      </c>
+      <c r="T51">
+        <v>1.34</v>
+      </c>
+      <c r="U51">
+        <v>2.8</v>
+      </c>
+      <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.4</v>
+      </c>
+      <c r="X51">
+        <v>6.25</v>
+      </c>
+      <c r="Y51">
+        <v>1.08</v>
+      </c>
+      <c r="Z51">
+        <v>1.99</v>
+      </c>
+      <c r="AA51">
+        <v>3.4</v>
+      </c>
+      <c r="AB51">
+        <v>3.55</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>9</v>
+      </c>
+      <c r="AE51">
+        <v>1.29</v>
+      </c>
+      <c r="AF51">
+        <v>3.4</v>
+      </c>
+      <c r="AG51">
+        <v>1.85</v>
+      </c>
+      <c r="AH51">
+        <v>1.85</v>
+      </c>
+      <c r="AI51">
+        <v>1.79</v>
+      </c>
+      <c r="AJ51">
+        <v>1.93</v>
+      </c>
+      <c r="AK51">
+        <v>1.29</v>
+      </c>
+      <c r="AL51">
+        <v>1.28</v>
+      </c>
+      <c r="AM51">
+        <v>1.85</v>
+      </c>
+      <c r="AN51">
+        <v>0.75</v>
+      </c>
+      <c r="AO51">
+        <v>0.25</v>
+      </c>
+      <c r="AP51">
+        <v>0.6</v>
+      </c>
+      <c r="AQ51">
+        <v>0.8</v>
+      </c>
+      <c r="AR51">
+        <v>1.67</v>
+      </c>
+      <c r="AS51">
+        <v>1.11</v>
+      </c>
+      <c r="AT51">
+        <v>2.78</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>10</v>
+      </c>
+      <c r="AW51">
+        <v>9</v>
+      </c>
+      <c r="AX51">
+        <v>4</v>
+      </c>
+      <c r="AY51">
+        <v>12</v>
+      </c>
+      <c r="AZ51">
+        <v>14</v>
+      </c>
+      <c r="BA51">
+        <v>10</v>
+      </c>
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>16</v>
+      </c>
+      <c r="BD51">
+        <v>1.65</v>
+      </c>
+      <c r="BE51">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF51">
+        <v>2.45</v>
+      </c>
+      <c r="BG51">
+        <v>1.27</v>
+      </c>
+      <c r="BH51">
+        <v>3.14</v>
+      </c>
+      <c r="BI51">
+        <v>1.49</v>
+      </c>
+      <c r="BJ51">
+        <v>2.34</v>
+      </c>
+      <c r="BK51">
+        <v>1.92</v>
+      </c>
+      <c r="BL51">
+        <v>1.82</v>
+      </c>
+      <c r="BM51">
+        <v>2.4</v>
+      </c>
+      <c r="BN51">
+        <v>1.45</v>
+      </c>
+      <c r="BO51">
+        <v>3.34</v>
+      </c>
+      <c r="BP51">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,15 @@
     <t>['32', '90+1']</t>
   </si>
   <si>
+    <t>['39', '41']</t>
+  </si>
+  <si>
+    <t>['89', '90+5']</t>
+  </si>
+  <si>
+    <t>['1', '67']</t>
+  </si>
+  <si>
     <t>['45+1', '81']</t>
   </si>
   <si>
@@ -458,6 +467,12 @@
   </si>
   <si>
     <t>['8', '11', '62', '88']</t>
+  </si>
+  <si>
+    <t>['70', '81', '90+6']</t>
+  </si>
+  <si>
+    <t>['37', '81']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1093,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1156,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1362,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
@@ -1696,7 +1711,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1777,7 +1792,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2189,7 +2204,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2392,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>0.8</v>
@@ -2520,7 +2535,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2601,7 +2616,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2932,7 +2947,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3138,7 +3153,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3216,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3344,7 +3359,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3422,10 +3437,10 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>1.54</v>
@@ -3550,7 +3565,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3628,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.46</v>
@@ -3756,7 +3771,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -3837,7 +3852,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.43</v>
@@ -3962,7 +3977,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4168,7 +4183,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4374,7 +4389,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4786,7 +4801,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -4992,7 +5007,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5073,7 +5088,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ21">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5276,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5404,7 +5419,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5482,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>2.2</v>
@@ -5688,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -5816,7 +5831,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -5897,7 +5912,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.72</v>
@@ -6022,7 +6037,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6100,7 +6115,7 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6309,7 +6324,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -6434,7 +6449,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6512,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.2</v>
@@ -6721,7 +6736,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.92</v>
@@ -6846,7 +6861,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7052,7 +7067,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7133,7 +7148,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.77</v>
@@ -7258,7 +7273,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7339,7 +7354,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ32">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.2</v>
@@ -7542,7 +7557,7 @@
         <v>2.33</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>2.2</v>
@@ -7670,7 +7685,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -7954,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.4</v>
@@ -8288,7 +8303,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8778,10 +8793,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -8906,7 +8921,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9112,7 +9127,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9190,10 +9205,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR41">
         <v>1.63</v>
@@ -9396,10 +9411,10 @@
         <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.9</v>
@@ -9524,7 +9539,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9808,10 +9823,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -9936,7 +9951,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10017,7 +10032,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ45">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -10142,7 +10157,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10220,7 +10235,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.2</v>
@@ -10554,7 +10569,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10632,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>1.8</v>
@@ -10760,7 +10775,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -10966,7 +10981,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11172,7 +11187,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11329,6 +11344,830 @@
       </c>
       <c r="BP51">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7775669</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45768.41666666666</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52" t="s">
+        <v>117</v>
+      </c>
+      <c r="P52" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q52">
+        <v>2.24</v>
+      </c>
+      <c r="R52">
+        <v>2.15</v>
+      </c>
+      <c r="S52">
+        <v>5.5</v>
+      </c>
+      <c r="T52">
+        <v>1.44</v>
+      </c>
+      <c r="U52">
+        <v>2.55</v>
+      </c>
+      <c r="V52">
+        <v>3</v>
+      </c>
+      <c r="W52">
+        <v>1.32</v>
+      </c>
+      <c r="X52">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>1.06</v>
+      </c>
+      <c r="Z52">
+        <v>1.55</v>
+      </c>
+      <c r="AA52">
+        <v>3.72</v>
+      </c>
+      <c r="AB52">
+        <v>5.1</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AD52">
+        <v>6.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.38</v>
+      </c>
+      <c r="AF52">
+        <v>3.16</v>
+      </c>
+      <c r="AG52">
+        <v>2.15</v>
+      </c>
+      <c r="AH52">
+        <v>1.7</v>
+      </c>
+      <c r="AI52">
+        <v>2.05</v>
+      </c>
+      <c r="AJ52">
+        <v>1.7</v>
+      </c>
+      <c r="AK52">
+        <v>1.29</v>
+      </c>
+      <c r="AL52">
+        <v>1.22</v>
+      </c>
+      <c r="AM52">
+        <v>2.3</v>
+      </c>
+      <c r="AN52">
+        <v>2.5</v>
+      </c>
+      <c r="AO52">
+        <v>0.6</v>
+      </c>
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
+        <v>1</v>
+      </c>
+      <c r="AR52">
+        <v>1.89</v>
+      </c>
+      <c r="AS52">
+        <v>1.3</v>
+      </c>
+      <c r="AT52">
+        <v>3.19</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>7</v>
+      </c>
+      <c r="AX52">
+        <v>6</v>
+      </c>
+      <c r="AY52">
+        <v>11</v>
+      </c>
+      <c r="AZ52">
+        <v>11</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>6</v>
+      </c>
+      <c r="BD52">
+        <v>1.49</v>
+      </c>
+      <c r="BE52">
+        <v>9.1</v>
+      </c>
+      <c r="BF52">
+        <v>2.8</v>
+      </c>
+      <c r="BG52">
+        <v>1.29</v>
+      </c>
+      <c r="BH52">
+        <v>3.3</v>
+      </c>
+      <c r="BI52">
+        <v>1.48</v>
+      </c>
+      <c r="BJ52">
+        <v>2.5</v>
+      </c>
+      <c r="BK52">
+        <v>1.75</v>
+      </c>
+      <c r="BL52">
+        <v>1.95</v>
+      </c>
+      <c r="BM52">
+        <v>2.22</v>
+      </c>
+      <c r="BN52">
+        <v>1.6</v>
+      </c>
+      <c r="BO52">
+        <v>2.8</v>
+      </c>
+      <c r="BP52">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7775668</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45768.54166666666</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P53" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q53">
+        <v>4.33</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>2.65</v>
+      </c>
+      <c r="T53">
+        <v>1.45</v>
+      </c>
+      <c r="U53">
+        <v>2.55</v>
+      </c>
+      <c r="V53">
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <v>1.28</v>
+      </c>
+      <c r="X53">
+        <v>9.4</v>
+      </c>
+      <c r="Y53">
+        <v>1.06</v>
+      </c>
+      <c r="Z53">
+        <v>3.55</v>
+      </c>
+      <c r="AA53">
+        <v>3.1</v>
+      </c>
+      <c r="AB53">
+        <v>2</v>
+      </c>
+      <c r="AC53">
+        <v>1.07</v>
+      </c>
+      <c r="AD53">
+        <v>8</v>
+      </c>
+      <c r="AE53">
+        <v>1.38</v>
+      </c>
+      <c r="AF53">
+        <v>2.8</v>
+      </c>
+      <c r="AG53">
+        <v>2.2</v>
+      </c>
+      <c r="AH53">
+        <v>1.62</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.75</v>
+      </c>
+      <c r="AK53">
+        <v>1.75</v>
+      </c>
+      <c r="AL53">
+        <v>1.33</v>
+      </c>
+      <c r="AM53">
+        <v>1.25</v>
+      </c>
+      <c r="AN53">
+        <v>1.6</v>
+      </c>
+      <c r="AO53">
+        <v>1.5</v>
+      </c>
+      <c r="AP53">
+        <v>1.5</v>
+      </c>
+      <c r="AQ53">
+        <v>1.4</v>
+      </c>
+      <c r="AR53">
+        <v>1.38</v>
+      </c>
+      <c r="AS53">
+        <v>1.68</v>
+      </c>
+      <c r="AT53">
+        <v>3.06</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>13</v>
+      </c>
+      <c r="AX53">
+        <v>8</v>
+      </c>
+      <c r="AY53">
+        <v>17</v>
+      </c>
+      <c r="AZ53">
+        <v>8</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>8</v>
+      </c>
+      <c r="BD53">
+        <v>2.97</v>
+      </c>
+      <c r="BE53">
+        <v>7.9</v>
+      </c>
+      <c r="BF53">
+        <v>1.64</v>
+      </c>
+      <c r="BG53">
+        <v>1.29</v>
+      </c>
+      <c r="BH53">
+        <v>3.3</v>
+      </c>
+      <c r="BI53">
+        <v>1.44</v>
+      </c>
+      <c r="BJ53">
+        <v>2.53</v>
+      </c>
+      <c r="BK53">
+        <v>1.84</v>
+      </c>
+      <c r="BL53">
+        <v>1.97</v>
+      </c>
+      <c r="BM53">
+        <v>2.27</v>
+      </c>
+      <c r="BN53">
+        <v>1.6</v>
+      </c>
+      <c r="BO53">
+        <v>2.9</v>
+      </c>
+      <c r="BP53">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7775666</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45768.54166666666</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>118</v>
+      </c>
+      <c r="P54" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q54">
+        <v>2.55</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="T54">
+        <v>1.43</v>
+      </c>
+      <c r="U54">
+        <v>2.54</v>
+      </c>
+      <c r="V54">
+        <v>3.08</v>
+      </c>
+      <c r="W54">
+        <v>1.3</v>
+      </c>
+      <c r="X54">
+        <v>7.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.01</v>
+      </c>
+      <c r="Z54">
+        <v>2.25</v>
+      </c>
+      <c r="AA54">
+        <v>3.15</v>
+      </c>
+      <c r="AB54">
+        <v>3.28</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>7.75</v>
+      </c>
+      <c r="AE54">
+        <v>1.32</v>
+      </c>
+      <c r="AF54">
+        <v>2.8</v>
+      </c>
+      <c r="AG54">
+        <v>2.17</v>
+      </c>
+      <c r="AH54">
+        <v>1.72</v>
+      </c>
+      <c r="AI54">
+        <v>1.85</v>
+      </c>
+      <c r="AJ54">
+        <v>1.85</v>
+      </c>
+      <c r="AK54">
+        <v>1.34</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.61</v>
+      </c>
+      <c r="AN54">
+        <v>1.2</v>
+      </c>
+      <c r="AO54">
+        <v>1.2</v>
+      </c>
+      <c r="AP54">
+        <v>1.5</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1.59</v>
+      </c>
+      <c r="AS54">
+        <v>0.96</v>
+      </c>
+      <c r="AT54">
+        <v>2.55</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>3</v>
+      </c>
+      <c r="AW54">
+        <v>15</v>
+      </c>
+      <c r="AX54">
+        <v>4</v>
+      </c>
+      <c r="AY54">
+        <v>18</v>
+      </c>
+      <c r="AZ54">
+        <v>7</v>
+      </c>
+      <c r="BA54">
+        <v>11</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>14</v>
+      </c>
+      <c r="BD54">
+        <v>1.64</v>
+      </c>
+      <c r="BE54">
+        <v>8.5</v>
+      </c>
+      <c r="BF54">
+        <v>2.76</v>
+      </c>
+      <c r="BG54">
+        <v>1.22</v>
+      </c>
+      <c r="BH54">
+        <v>3.5</v>
+      </c>
+      <c r="BI54">
+        <v>1.36</v>
+      </c>
+      <c r="BJ54">
+        <v>3.05</v>
+      </c>
+      <c r="BK54">
+        <v>1.57</v>
+      </c>
+      <c r="BL54">
+        <v>2.25</v>
+      </c>
+      <c r="BM54">
+        <v>1.8</v>
+      </c>
+      <c r="BN54">
+        <v>1.91</v>
+      </c>
+      <c r="BO54">
+        <v>2.4</v>
+      </c>
+      <c r="BP54">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7775670</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45768.54166666666</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>119</v>
+      </c>
+      <c r="P55" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q55">
+        <v>2.6</v>
+      </c>
+      <c r="R55">
+        <v>1.95</v>
+      </c>
+      <c r="S55">
+        <v>4.77</v>
+      </c>
+      <c r="T55">
+        <v>1.57</v>
+      </c>
+      <c r="U55">
+        <v>2.38</v>
+      </c>
+      <c r="V55">
+        <v>3.8</v>
+      </c>
+      <c r="W55">
+        <v>1.29</v>
+      </c>
+      <c r="X55">
+        <v>11</v>
+      </c>
+      <c r="Y55">
+        <v>1.03</v>
+      </c>
+      <c r="Z55">
+        <v>2.1</v>
+      </c>
+      <c r="AA55">
+        <v>3.05</v>
+      </c>
+      <c r="AB55">
+        <v>3.73</v>
+      </c>
+      <c r="AC55">
+        <v>1.12</v>
+      </c>
+      <c r="AD55">
+        <v>6</v>
+      </c>
+      <c r="AE55">
+        <v>1.6</v>
+      </c>
+      <c r="AF55">
+        <v>2.3</v>
+      </c>
+      <c r="AG55">
+        <v>2.88</v>
+      </c>
+      <c r="AH55">
+        <v>1.42</v>
+      </c>
+      <c r="AI55">
+        <v>2.25</v>
+      </c>
+      <c r="AJ55">
+        <v>1.57</v>
+      </c>
+      <c r="AK55">
+        <v>1.28</v>
+      </c>
+      <c r="AL55">
+        <v>1.33</v>
+      </c>
+      <c r="AM55">
+        <v>1.63</v>
+      </c>
+      <c r="AN55">
+        <v>1.6</v>
+      </c>
+      <c r="AO55">
+        <v>1.8</v>
+      </c>
+      <c r="AP55">
+        <v>1.5</v>
+      </c>
+      <c r="AQ55">
+        <v>1.67</v>
+      </c>
+      <c r="AR55">
+        <v>1.84</v>
+      </c>
+      <c r="AS55">
+        <v>1.46</v>
+      </c>
+      <c r="AT55">
+        <v>3.3</v>
+      </c>
+      <c r="AU55">
+        <v>9</v>
+      </c>
+      <c r="AV55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>24</v>
+      </c>
+      <c r="AX55">
+        <v>12</v>
+      </c>
+      <c r="AY55">
+        <v>33</v>
+      </c>
+      <c r="AZ55">
+        <v>17</v>
+      </c>
+      <c r="BA55">
+        <v>8</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
+        <v>11</v>
+      </c>
+      <c r="BD55">
+        <v>1.67</v>
+      </c>
+      <c r="BE55">
+        <v>8.5</v>
+      </c>
+      <c r="BF55">
+        <v>2.35</v>
+      </c>
+      <c r="BG55">
+        <v>1.45</v>
+      </c>
+      <c r="BH55">
+        <v>2.45</v>
+      </c>
+      <c r="BI55">
+        <v>1.77</v>
+      </c>
+      <c r="BJ55">
+        <v>1.89</v>
+      </c>
+      <c r="BK55">
+        <v>2.53</v>
+      </c>
+      <c r="BL55">
+        <v>1.55</v>
+      </c>
+      <c r="BM55">
+        <v>2.9</v>
+      </c>
+      <c r="BN55">
+        <v>1.34</v>
+      </c>
+      <c r="BO55">
+        <v>3.6</v>
+      </c>
+      <c r="BP55">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>['1', '67']</t>
+  </si>
+  <si>
+    <t>['15', '25', '46']</t>
   </si>
   <si>
     <t>['45+1', '81']</t>
@@ -834,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1096,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1711,7 +1714,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2201,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2410,7 +2413,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2535,7 +2538,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2947,7 +2950,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3028,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>2.05</v>
@@ -3153,7 +3156,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3359,7 +3362,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3565,7 +3568,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3771,7 +3774,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -3849,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -3977,7 +3980,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4183,7 +4186,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4389,7 +4392,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4801,7 +4804,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -5007,7 +5010,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5419,7 +5422,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5706,7 +5709,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>1.36</v>
@@ -5831,7 +5834,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -5909,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>1.67</v>
@@ -6037,7 +6040,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6449,7 +6452,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6861,7 +6864,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7067,7 +7070,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7273,7 +7276,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7685,7 +7688,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -8303,7 +8306,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8384,7 +8387,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.78</v>
@@ -8587,7 +8590,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38">
         <v>0.2</v>
@@ -8921,7 +8924,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9127,7 +9130,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9539,7 +9542,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9617,7 +9620,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
         <v>2.2</v>
@@ -9951,7 +9954,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10157,7 +10160,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10569,7 +10572,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10775,7 +10778,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -10981,7 +10984,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11187,7 +11190,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11268,7 +11271,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11393,7 +11396,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -12011,7 +12014,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12168,6 +12171,212 @@
       </c>
       <c r="BP55">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7775667</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45769.65625</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>120</v>
+      </c>
+      <c r="P56" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q56">
+        <v>1.95</v>
+      </c>
+      <c r="R56">
+        <v>2.16</v>
+      </c>
+      <c r="S56">
+        <v>7</v>
+      </c>
+      <c r="T56">
+        <v>1.36</v>
+      </c>
+      <c r="U56">
+        <v>2.9</v>
+      </c>
+      <c r="V56">
+        <v>2.8</v>
+      </c>
+      <c r="W56">
+        <v>1.38</v>
+      </c>
+      <c r="X56">
+        <v>6.55</v>
+      </c>
+      <c r="Y56">
+        <v>1.09</v>
+      </c>
+      <c r="Z56">
+        <v>1.4</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56">
+        <v>8</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>10</v>
+      </c>
+      <c r="AE56">
+        <v>1.28</v>
+      </c>
+      <c r="AF56">
+        <v>3.7</v>
+      </c>
+      <c r="AG56">
+        <v>1.88</v>
+      </c>
+      <c r="AH56">
+        <v>1.93</v>
+      </c>
+      <c r="AI56">
+        <v>2.1</v>
+      </c>
+      <c r="AJ56">
+        <v>1.67</v>
+      </c>
+      <c r="AK56">
+        <v>1.07</v>
+      </c>
+      <c r="AL56">
+        <v>1.18</v>
+      </c>
+      <c r="AM56">
+        <v>2.88</v>
+      </c>
+      <c r="AN56">
+        <v>1.4</v>
+      </c>
+      <c r="AO56">
+        <v>0.8</v>
+      </c>
+      <c r="AP56">
+        <v>1.67</v>
+      </c>
+      <c r="AQ56">
+        <v>0.67</v>
+      </c>
+      <c r="AR56">
+        <v>1.88</v>
+      </c>
+      <c r="AS56">
+        <v>1.24</v>
+      </c>
+      <c r="AT56">
+        <v>3.12</v>
+      </c>
+      <c r="AU56">
+        <v>9</v>
+      </c>
+      <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>9</v>
+      </c>
+      <c r="AX56">
+        <v>7</v>
+      </c>
+      <c r="AY56">
+        <v>18</v>
+      </c>
+      <c r="AZ56">
+        <v>10</v>
+      </c>
+      <c r="BA56">
+        <v>5</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>6</v>
+      </c>
+      <c r="BD56">
+        <v>1.22</v>
+      </c>
+      <c r="BE56">
+        <v>7.5</v>
+      </c>
+      <c r="BF56">
+        <v>4.2</v>
+      </c>
+      <c r="BG56">
+        <v>1.24</v>
+      </c>
+      <c r="BH56">
+        <v>2.8</v>
+      </c>
+      <c r="BI56">
+        <v>1.48</v>
+      </c>
+      <c r="BJ56">
+        <v>2.2</v>
+      </c>
+      <c r="BK56">
+        <v>1.86</v>
+      </c>
+      <c r="BL56">
+        <v>1.71</v>
+      </c>
+      <c r="BM56">
+        <v>2.35</v>
+      </c>
+      <c r="BN56">
+        <v>1.55</v>
+      </c>
+      <c r="BO56">
+        <v>3.15</v>
+      </c>
+      <c r="BP56">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,18 @@
     <t>['15', '25', '46']</t>
   </si>
   <si>
+    <t>['90', '90+7']</t>
+  </si>
+  <si>
+    <t>['68', '70']</t>
+  </si>
+  <si>
+    <t>['40', '65']</t>
+  </si>
+  <si>
+    <t>['28', '67']</t>
+  </si>
+  <si>
     <t>['45+1', '81']</t>
   </si>
   <si>
@@ -476,6 +488,15 @@
   </si>
   <si>
     <t>['37', '81']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['50', '64']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,7 +1117,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1383,7 +1404,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1589,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1714,7 +1735,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1998,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2538,7 +2559,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2616,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2822,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2950,7 +2971,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3156,7 +3177,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3362,7 +3383,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3568,7 +3589,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3774,7 +3795,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -3980,7 +4001,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4058,10 +4079,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4186,7 +4207,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4264,10 +4285,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>1.58</v>
@@ -4392,7 +4413,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4679,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>2.01</v>
@@ -4804,7 +4825,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -4882,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.2</v>
@@ -5010,7 +5031,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5088,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5294,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5422,7 +5443,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5503,7 +5524,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR23">
         <v>1.82</v>
@@ -5834,7 +5855,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -6040,7 +6061,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6324,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6452,7 +6473,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6864,7 +6885,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -6945,7 +6966,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>1.87</v>
@@ -7070,7 +7091,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7148,10 +7169,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>1.77</v>
@@ -7276,7 +7297,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7354,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7563,7 +7584,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR33">
         <v>1.68</v>
@@ -7688,7 +7709,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -7769,7 +7790,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ34">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.64</v>
@@ -7972,10 +7993,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8181,7 +8202,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.81</v>
@@ -8306,7 +8327,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8384,7 +8405,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8924,7 +8945,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9002,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9130,7 +9151,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9211,7 +9232,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR41">
         <v>1.63</v>
@@ -9542,7 +9563,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9623,7 +9644,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR43">
         <v>2.04</v>
@@ -9826,7 +9847,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -9954,7 +9975,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10160,7 +10181,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10238,7 +10259,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>0.2</v>
@@ -10444,7 +10465,7 @@
         <v>0.25</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.2</v>
@@ -10572,7 +10593,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10653,7 +10674,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.51</v>
@@ -10778,7 +10799,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -10856,10 +10877,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>1.6</v>
@@ -10984,7 +11005,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11190,7 +11211,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11268,7 +11289,7 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11396,7 +11417,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -11474,7 +11495,7 @@
         <v>0.6</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11683,7 +11704,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -12014,7 +12035,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12377,6 +12398,830 @@
       </c>
       <c r="BP56">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7775671</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45772.65625</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>121</v>
+      </c>
+      <c r="P57" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q57">
+        <v>3.5</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="T57">
+        <v>1.43</v>
+      </c>
+      <c r="U57">
+        <v>2.55</v>
+      </c>
+      <c r="V57">
+        <v>3</v>
+      </c>
+      <c r="W57">
+        <v>1.33</v>
+      </c>
+      <c r="X57">
+        <v>8</v>
+      </c>
+      <c r="Y57">
+        <v>1.02</v>
+      </c>
+      <c r="Z57">
+        <v>2.82</v>
+      </c>
+      <c r="AA57">
+        <v>3.1</v>
+      </c>
+      <c r="AB57">
+        <v>2.3</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>7.75</v>
+      </c>
+      <c r="AE57">
+        <v>1.36</v>
+      </c>
+      <c r="AF57">
+        <v>2.88</v>
+      </c>
+      <c r="AG57">
+        <v>2.15</v>
+      </c>
+      <c r="AH57">
+        <v>1.65</v>
+      </c>
+      <c r="AI57">
+        <v>1.87</v>
+      </c>
+      <c r="AJ57">
+        <v>1.82</v>
+      </c>
+      <c r="AK57">
+        <v>1.57</v>
+      </c>
+      <c r="AL57">
+        <v>1.33</v>
+      </c>
+      <c r="AM57">
+        <v>1.4</v>
+      </c>
+      <c r="AN57">
+        <v>1.8</v>
+      </c>
+      <c r="AO57">
+        <v>1.4</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>1.17</v>
+      </c>
+      <c r="AR57">
+        <v>1.95</v>
+      </c>
+      <c r="AS57">
+        <v>1.49</v>
+      </c>
+      <c r="AT57">
+        <v>3.44</v>
+      </c>
+      <c r="AU57">
+        <v>9</v>
+      </c>
+      <c r="AV57">
+        <v>2</v>
+      </c>
+      <c r="AW57">
+        <v>8</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>17</v>
+      </c>
+      <c r="AZ57">
+        <v>6</v>
+      </c>
+      <c r="BA57">
+        <v>4</v>
+      </c>
+      <c r="BB57">
+        <v>2</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>1.97</v>
+      </c>
+      <c r="BE57">
+        <v>6.55</v>
+      </c>
+      <c r="BF57">
+        <v>2.23</v>
+      </c>
+      <c r="BG57">
+        <v>1.29</v>
+      </c>
+      <c r="BH57">
+        <v>3.3</v>
+      </c>
+      <c r="BI57">
+        <v>1.49</v>
+      </c>
+      <c r="BJ57">
+        <v>2.5</v>
+      </c>
+      <c r="BK57">
+        <v>1.79</v>
+      </c>
+      <c r="BL57">
+        <v>1.91</v>
+      </c>
+      <c r="BM57">
+        <v>2.25</v>
+      </c>
+      <c r="BN57">
+        <v>1.57</v>
+      </c>
+      <c r="BO57">
+        <v>2.88</v>
+      </c>
+      <c r="BP57">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7775672</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45772.65625</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>122</v>
+      </c>
+      <c r="P58" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q58">
+        <v>2.83</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>3.8</v>
+      </c>
+      <c r="T58">
+        <v>1.49</v>
+      </c>
+      <c r="U58">
+        <v>2.49</v>
+      </c>
+      <c r="V58">
+        <v>3.4</v>
+      </c>
+      <c r="W58">
+        <v>1.27</v>
+      </c>
+      <c r="X58">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>2</v>
+      </c>
+      <c r="AA58">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>3.3</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+      <c r="AD58">
+        <v>7.2</v>
+      </c>
+      <c r="AE58">
+        <v>1.46</v>
+      </c>
+      <c r="AF58">
+        <v>2.6</v>
+      </c>
+      <c r="AG58">
+        <v>2.35</v>
+      </c>
+      <c r="AH58">
+        <v>1.52</v>
+      </c>
+      <c r="AI58">
+        <v>2.2</v>
+      </c>
+      <c r="AJ58">
+        <v>1.67</v>
+      </c>
+      <c r="AK58">
+        <v>1.36</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.66</v>
+      </c>
+      <c r="AN58">
+        <v>1.4</v>
+      </c>
+      <c r="AO58">
+        <v>2.2</v>
+      </c>
+      <c r="AP58">
+        <v>1.67</v>
+      </c>
+      <c r="AQ58">
+        <v>1.83</v>
+      </c>
+      <c r="AR58">
+        <v>1.65</v>
+      </c>
+      <c r="AS58">
+        <v>1.37</v>
+      </c>
+      <c r="AT58">
+        <v>3.02</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>7</v>
+      </c>
+      <c r="AX58">
+        <v>14</v>
+      </c>
+      <c r="AY58">
+        <v>13</v>
+      </c>
+      <c r="AZ58">
+        <v>19</v>
+      </c>
+      <c r="BA58">
+        <v>5</v>
+      </c>
+      <c r="BB58">
+        <v>5</v>
+      </c>
+      <c r="BC58">
+        <v>10</v>
+      </c>
+      <c r="BD58">
+        <v>1.58</v>
+      </c>
+      <c r="BE58">
+        <v>7.6</v>
+      </c>
+      <c r="BF58">
+        <v>2.98</v>
+      </c>
+      <c r="BG58">
+        <v>1.3</v>
+      </c>
+      <c r="BH58">
+        <v>3.28</v>
+      </c>
+      <c r="BI58">
+        <v>1.5</v>
+      </c>
+      <c r="BJ58">
+        <v>2.41</v>
+      </c>
+      <c r="BK58">
+        <v>2.17</v>
+      </c>
+      <c r="BL58">
+        <v>1.8</v>
+      </c>
+      <c r="BM58">
+        <v>2.4</v>
+      </c>
+      <c r="BN58">
+        <v>1.48</v>
+      </c>
+      <c r="BO58">
+        <v>3.2</v>
+      </c>
+      <c r="BP58">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7775673</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45772.65625</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>123</v>
+      </c>
+      <c r="P59" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q59">
+        <v>4.75</v>
+      </c>
+      <c r="R59">
+        <v>2.04</v>
+      </c>
+      <c r="S59">
+        <v>2.42</v>
+      </c>
+      <c r="T59">
+        <v>1.45</v>
+      </c>
+      <c r="U59">
+        <v>2.55</v>
+      </c>
+      <c r="V59">
+        <v>3</v>
+      </c>
+      <c r="W59">
+        <v>1.36</v>
+      </c>
+      <c r="X59">
+        <v>9.1</v>
+      </c>
+      <c r="Y59">
+        <v>1.06</v>
+      </c>
+      <c r="Z59">
+        <v>4.2</v>
+      </c>
+      <c r="AA59">
+        <v>3.4</v>
+      </c>
+      <c r="AB59">
+        <v>1.7</v>
+      </c>
+      <c r="AC59">
+        <v>1.04</v>
+      </c>
+      <c r="AD59">
+        <v>7.8</v>
+      </c>
+      <c r="AE59">
+        <v>1.4</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
+      <c r="AG59">
+        <v>2.2</v>
+      </c>
+      <c r="AH59">
+        <v>1.69</v>
+      </c>
+      <c r="AI59">
+        <v>2</v>
+      </c>
+      <c r="AJ59">
+        <v>1.75</v>
+      </c>
+      <c r="AK59">
+        <v>1.3</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.18</v>
+      </c>
+      <c r="AN59">
+        <v>0.6</v>
+      </c>
+      <c r="AO59">
+        <v>1.4</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1.17</v>
+      </c>
+      <c r="AR59">
+        <v>1.59</v>
+      </c>
+      <c r="AS59">
+        <v>1.17</v>
+      </c>
+      <c r="AT59">
+        <v>2.76</v>
+      </c>
+      <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>6</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>10</v>
+      </c>
+      <c r="AY59">
+        <v>10</v>
+      </c>
+      <c r="AZ59">
+        <v>16</v>
+      </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+      <c r="BB59">
+        <v>7</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>2.88</v>
+      </c>
+      <c r="BE59">
+        <v>7.8</v>
+      </c>
+      <c r="BF59">
+        <v>1.54</v>
+      </c>
+      <c r="BG59">
+        <v>1.24</v>
+      </c>
+      <c r="BH59">
+        <v>3.34</v>
+      </c>
+      <c r="BI59">
+        <v>1.5</v>
+      </c>
+      <c r="BJ59">
+        <v>2.4</v>
+      </c>
+      <c r="BK59">
+        <v>1.73</v>
+      </c>
+      <c r="BL59">
+        <v>2</v>
+      </c>
+      <c r="BM59">
+        <v>2.3</v>
+      </c>
+      <c r="BN59">
+        <v>1.55</v>
+      </c>
+      <c r="BO59">
+        <v>3.08</v>
+      </c>
+      <c r="BP59">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7775674</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45772.65625</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60" t="s">
+        <v>124</v>
+      </c>
+      <c r="P60" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q60">
+        <v>2.61</v>
+      </c>
+      <c r="R60">
+        <v>1.9</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>1.58</v>
+      </c>
+      <c r="U60">
+        <v>2.43</v>
+      </c>
+      <c r="V60">
+        <v>3.8</v>
+      </c>
+      <c r="W60">
+        <v>1.24</v>
+      </c>
+      <c r="X60">
+        <v>9.1</v>
+      </c>
+      <c r="Y60">
+        <v>1.03</v>
+      </c>
+      <c r="Z60">
+        <v>1.94</v>
+      </c>
+      <c r="AA60">
+        <v>3</v>
+      </c>
+      <c r="AB60">
+        <v>3.9</v>
+      </c>
+      <c r="AC60">
+        <v>1.1</v>
+      </c>
+      <c r="AD60">
+        <v>6.89</v>
+      </c>
+      <c r="AE60">
+        <v>1.52</v>
+      </c>
+      <c r="AF60">
+        <v>2.5</v>
+      </c>
+      <c r="AG60">
+        <v>2.5</v>
+      </c>
+      <c r="AH60">
+        <v>1.5</v>
+      </c>
+      <c r="AI60">
+        <v>2.23</v>
+      </c>
+      <c r="AJ60">
+        <v>1.62</v>
+      </c>
+      <c r="AK60">
+        <v>1.27</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.9</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>1.8</v>
+      </c>
+      <c r="AP60">
+        <v>1.83</v>
+      </c>
+      <c r="AQ60">
+        <v>1.67</v>
+      </c>
+      <c r="AR60">
+        <v>1.76</v>
+      </c>
+      <c r="AS60">
+        <v>1.76</v>
+      </c>
+      <c r="AT60">
+        <v>3.52</v>
+      </c>
+      <c r="AU60">
+        <v>7</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>10</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>17</v>
+      </c>
+      <c r="AZ60">
+        <v>9</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>1.5</v>
+      </c>
+      <c r="BE60">
+        <v>7.6</v>
+      </c>
+      <c r="BF60">
+        <v>2.95</v>
+      </c>
+      <c r="BG60">
+        <v>1.36</v>
+      </c>
+      <c r="BH60">
+        <v>2.8</v>
+      </c>
+      <c r="BI60">
+        <v>1.7</v>
+      </c>
+      <c r="BJ60">
+        <v>2.05</v>
+      </c>
+      <c r="BK60">
+        <v>2.08</v>
+      </c>
+      <c r="BL60">
+        <v>1.73</v>
+      </c>
+      <c r="BM60">
+        <v>2.5</v>
+      </c>
+      <c r="BN60">
+        <v>1.48</v>
+      </c>
+      <c r="BO60">
+        <v>3.52</v>
+      </c>
+      <c r="BP60">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>['28', '67']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
   <si>
     <t>['45+1', '81']</t>
@@ -858,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,7 +1120,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1735,7 +1738,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1813,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2559,7 +2562,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2971,7 +2974,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3177,7 +3180,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3383,7 +3386,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3589,7 +3592,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3795,7 +3798,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -4001,7 +4004,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4207,7 +4210,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4413,7 +4416,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4491,7 +4494,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -4825,7 +4828,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -4906,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0.9</v>
@@ -5031,7 +5034,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5443,7 +5446,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5855,7 +5858,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -6061,7 +6064,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6473,7 +6476,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6554,7 +6557,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.81</v>
@@ -6885,7 +6888,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -6963,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30">
         <v>1.17</v>
@@ -7091,7 +7094,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7297,7 +7300,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7709,7 +7712,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -7787,7 +7790,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -8327,7 +8330,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8614,7 +8617,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ38">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR38">
         <v>1.99</v>
@@ -8945,7 +8948,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9151,7 +9154,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9563,7 +9566,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9975,7 +9978,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10053,7 +10056,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -10181,7 +10184,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10262,7 +10265,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ46">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10468,7 +10471,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR47">
         <v>1.97</v>
@@ -10593,7 +10596,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10799,7 +10802,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -11005,7 +11008,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11211,7 +11214,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11417,7 +11420,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -12035,7 +12038,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12447,7 +12450,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12859,7 +12862,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13065,7 +13068,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>2.61</v>
@@ -13222,6 +13225,212 @@
       </c>
       <c r="BP60">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7775675</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45773.65625</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>125</v>
+      </c>
+      <c r="P61" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q61">
+        <v>3.05</v>
+      </c>
+      <c r="R61">
+        <v>2.17</v>
+      </c>
+      <c r="S61">
+        <v>3.35</v>
+      </c>
+      <c r="T61">
+        <v>1.39</v>
+      </c>
+      <c r="U61">
+        <v>2.75</v>
+      </c>
+      <c r="V61">
+        <v>2.67</v>
+      </c>
+      <c r="W61">
+        <v>1.37</v>
+      </c>
+      <c r="X61">
+        <v>7.25</v>
+      </c>
+      <c r="Y61">
+        <v>1.08</v>
+      </c>
+      <c r="Z61">
+        <v>2.3</v>
+      </c>
+      <c r="AA61">
+        <v>3.2</v>
+      </c>
+      <c r="AB61">
+        <v>2.7</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>1.29</v>
+      </c>
+      <c r="AF61">
+        <v>3.3</v>
+      </c>
+      <c r="AG61">
+        <v>1.87</v>
+      </c>
+      <c r="AH61">
+        <v>1.85</v>
+      </c>
+      <c r="AI61">
+        <v>1.6</v>
+      </c>
+      <c r="AJ61">
+        <v>2.2</v>
+      </c>
+      <c r="AK61">
+        <v>1.27</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.5</v>
+      </c>
+      <c r="AN61">
+        <v>0.6</v>
+      </c>
+      <c r="AO61">
+        <v>0.2</v>
+      </c>
+      <c r="AP61">
+        <v>0.67</v>
+      </c>
+      <c r="AQ61">
+        <v>0.33</v>
+      </c>
+      <c r="AR61">
+        <v>1.58</v>
+      </c>
+      <c r="AS61">
+        <v>1.2</v>
+      </c>
+      <c r="AT61">
+        <v>2.78</v>
+      </c>
+      <c r="AU61">
+        <v>5</v>
+      </c>
+      <c r="AV61">
+        <v>2</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>9</v>
+      </c>
+      <c r="AZ61">
+        <v>4</v>
+      </c>
+      <c r="BA61">
+        <v>7</v>
+      </c>
+      <c r="BB61">
+        <v>5</v>
+      </c>
+      <c r="BC61">
+        <v>12</v>
+      </c>
+      <c r="BD61">
+        <v>1.95</v>
+      </c>
+      <c r="BE61">
+        <v>6.7</v>
+      </c>
+      <c r="BF61">
+        <v>2.02</v>
+      </c>
+      <c r="BG61">
+        <v>1.19</v>
+      </c>
+      <c r="BH61">
+        <v>4.15</v>
+      </c>
+      <c r="BI61">
+        <v>1.37</v>
+      </c>
+      <c r="BJ61">
+        <v>2.45</v>
+      </c>
+      <c r="BK61">
+        <v>1.6</v>
+      </c>
+      <c r="BL61">
+        <v>2.16</v>
+      </c>
+      <c r="BM61">
+        <v>1.98</v>
+      </c>
+      <c r="BN61">
+        <v>1.69</v>
+      </c>
+      <c r="BO61">
+        <v>2.59</v>
+      </c>
+      <c r="BP61">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,21 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['32', '38']</t>
+  </si>
+  <si>
+    <t>['67', '72']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['14', '31']</t>
+  </si>
+  <si>
     <t>['45+1', '81']</t>
   </si>
   <si>
@@ -500,6 +515,12 @@
   </si>
   <si>
     <t>['50', '64']</t>
+  </si>
+  <si>
+    <t>['28', '63']</t>
+  </si>
+  <si>
+    <t>['45+3', '58']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1141,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1198,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1610,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ4">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1738,7 +1759,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1816,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2022,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2228,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2562,7 +2583,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2849,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2974,7 +2995,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3052,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3180,7 +3201,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3261,7 +3282,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>1.77</v>
@@ -3386,7 +3407,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3467,7 +3488,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>1.54</v>
@@ -3592,7 +3613,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3670,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3798,7 +3819,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -3876,10 +3897,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR15">
         <v>1.43</v>
@@ -4004,7 +4025,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4082,10 +4103,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4210,7 +4231,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4291,7 +4312,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
         <v>1.58</v>
@@ -4416,7 +4437,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4494,10 +4515,10 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>2.63</v>
@@ -4700,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ19">
         <v>1.17</v>
@@ -4828,7 +4849,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -5034,7 +5055,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5446,7 +5467,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5527,7 +5548,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR23">
         <v>1.82</v>
@@ -5730,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -5858,7 +5879,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -5936,10 +5957,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR25">
         <v>1.72</v>
@@ -6064,7 +6085,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6145,7 +6166,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR26">
         <v>1.55</v>
@@ -6351,7 +6372,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -6476,7 +6497,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6760,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6888,7 +6909,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -6966,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ30">
         <v>1.17</v>
@@ -7094,7 +7115,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7300,7 +7321,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7378,10 +7399,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR32">
         <v>1.2</v>
@@ -7584,10 +7605,10 @@
         <v>2.33</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR33">
         <v>1.68</v>
@@ -7712,7 +7733,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -7790,10 +7811,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR34">
         <v>1.64</v>
@@ -8202,10 +8223,10 @@
         <v>2.33</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR36">
         <v>1.81</v>
@@ -8330,7 +8351,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8408,7 +8429,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8614,7 +8635,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ38">
         <v>0.33</v>
@@ -8823,7 +8844,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -8948,7 +8969,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9029,7 +9050,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -9154,7 +9175,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9232,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41">
         <v>1.17</v>
@@ -9566,7 +9587,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9644,10 +9665,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ43">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR43">
         <v>2.04</v>
@@ -9853,7 +9874,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -9978,7 +9999,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10056,10 +10077,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -10184,7 +10205,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10468,7 +10489,7 @@
         <v>0.25</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47">
         <v>0.33</v>
@@ -10596,7 +10617,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10677,7 +10698,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR48">
         <v>1.51</v>
@@ -10802,7 +10823,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -11008,7 +11029,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11086,10 +11107,10 @@
         <v>1.4</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11214,7 +11235,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11420,7 +11441,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -11910,10 +11931,10 @@
         <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12038,7 +12059,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12119,7 +12140,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR55">
         <v>1.84</v>
@@ -12322,7 +12343,7 @@
         <v>0.8</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ56">
         <v>0.67</v>
@@ -12450,7 +12471,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12528,7 +12549,7 @@
         <v>1.4</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
         <v>1.17</v>
@@ -12737,7 +12758,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR58">
         <v>1.65</v>
@@ -12862,7 +12883,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13068,7 +13089,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>2.61</v>
@@ -13149,7 +13170,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
         <v>1.76</v>
@@ -13274,7 +13295,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q61">
         <v>3.05</v>
@@ -13352,7 +13373,7 @@
         <v>0.2</v>
       </c>
       <c r="AP61">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ61">
         <v>0.33</v>
@@ -13431,6 +13452,1036 @@
       </c>
       <c r="BP61">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7775680</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45779.65625</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>126</v>
+      </c>
+      <c r="P62" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q62">
+        <v>2.43</v>
+      </c>
+      <c r="R62">
+        <v>2.03</v>
+      </c>
+      <c r="S62">
+        <v>4.8</v>
+      </c>
+      <c r="T62">
+        <v>1.4</v>
+      </c>
+      <c r="U62">
+        <v>2.57</v>
+      </c>
+      <c r="V62">
+        <v>3.1</v>
+      </c>
+      <c r="W62">
+        <v>1.31</v>
+      </c>
+      <c r="X62">
+        <v>8.75</v>
+      </c>
+      <c r="Y62">
+        <v>1.06</v>
+      </c>
+      <c r="Z62">
+        <v>1.85</v>
+      </c>
+      <c r="AA62">
+        <v>3.25</v>
+      </c>
+      <c r="AB62">
+        <v>4.5</v>
+      </c>
+      <c r="AC62">
+        <v>1.02</v>
+      </c>
+      <c r="AD62">
+        <v>8.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.38</v>
+      </c>
+      <c r="AF62">
+        <v>2.9</v>
+      </c>
+      <c r="AG62">
+        <v>2.1</v>
+      </c>
+      <c r="AH62">
+        <v>1.69</v>
+      </c>
+      <c r="AI62">
+        <v>2.05</v>
+      </c>
+      <c r="AJ62">
+        <v>1.73</v>
+      </c>
+      <c r="AK62">
+        <v>1.27</v>
+      </c>
+      <c r="AL62">
+        <v>1.29</v>
+      </c>
+      <c r="AM62">
+        <v>1.91</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>1.67</v>
+      </c>
+      <c r="AP62">
+        <v>2.14</v>
+      </c>
+      <c r="AQ62">
+        <v>1.43</v>
+      </c>
+      <c r="AR62">
+        <v>1.73</v>
+      </c>
+      <c r="AS62">
+        <v>1.51</v>
+      </c>
+      <c r="AT62">
+        <v>3.24</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>7</v>
+      </c>
+      <c r="AW62">
+        <v>9</v>
+      </c>
+      <c r="AX62">
+        <v>19</v>
+      </c>
+      <c r="AY62">
+        <v>13</v>
+      </c>
+      <c r="AZ62">
+        <v>26</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>8</v>
+      </c>
+      <c r="BD62">
+        <v>1.49</v>
+      </c>
+      <c r="BE62">
+        <v>8.9</v>
+      </c>
+      <c r="BF62">
+        <v>3.22</v>
+      </c>
+      <c r="BG62">
+        <v>1.23</v>
+      </c>
+      <c r="BH62">
+        <v>3.05</v>
+      </c>
+      <c r="BI62">
+        <v>1.53</v>
+      </c>
+      <c r="BJ62">
+        <v>2.28</v>
+      </c>
+      <c r="BK62">
+        <v>1.98</v>
+      </c>
+      <c r="BL62">
+        <v>2.01</v>
+      </c>
+      <c r="BM62">
+        <v>2.32</v>
+      </c>
+      <c r="BN62">
+        <v>1.51</v>
+      </c>
+      <c r="BO62">
+        <v>3.08</v>
+      </c>
+      <c r="BP62">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7775679</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45779.65625</v>
+      </c>
+      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>127</v>
+      </c>
+      <c r="P63" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q63">
+        <v>3.28</v>
+      </c>
+      <c r="R63">
+        <v>2.02</v>
+      </c>
+      <c r="S63">
+        <v>2.85</v>
+      </c>
+      <c r="T63">
+        <v>1.4</v>
+      </c>
+      <c r="U63">
+        <v>2.65</v>
+      </c>
+      <c r="V63">
+        <v>2.95</v>
+      </c>
+      <c r="W63">
+        <v>1.36</v>
+      </c>
+      <c r="X63">
+        <v>7.8</v>
+      </c>
+      <c r="Y63">
+        <v>1.07</v>
+      </c>
+      <c r="Z63">
+        <v>2.85</v>
+      </c>
+      <c r="AA63">
+        <v>3</v>
+      </c>
+      <c r="AB63">
+        <v>2.3</v>
+      </c>
+      <c r="AC63">
+        <v>1.03</v>
+      </c>
+      <c r="AD63">
+        <v>8.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.33</v>
+      </c>
+      <c r="AF63">
+        <v>3.2</v>
+      </c>
+      <c r="AG63">
+        <v>2.1</v>
+      </c>
+      <c r="AH63">
+        <v>1.71</v>
+      </c>
+      <c r="AI63">
+        <v>1.8</v>
+      </c>
+      <c r="AJ63">
+        <v>1.88</v>
+      </c>
+      <c r="AK63">
+        <v>1.33</v>
+      </c>
+      <c r="AL63">
+        <v>1.33</v>
+      </c>
+      <c r="AM63">
+        <v>1.4</v>
+      </c>
+      <c r="AN63">
+        <v>0.67</v>
+      </c>
+      <c r="AO63">
+        <v>1.83</v>
+      </c>
+      <c r="AP63">
+        <v>0.71</v>
+      </c>
+      <c r="AQ63">
+        <v>1.71</v>
+      </c>
+      <c r="AR63">
+        <v>1.53</v>
+      </c>
+      <c r="AS63">
+        <v>1.44</v>
+      </c>
+      <c r="AT63">
+        <v>2.97</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>5</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>10</v>
+      </c>
+      <c r="AY63">
+        <v>10</v>
+      </c>
+      <c r="AZ63">
+        <v>15</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>1.8</v>
+      </c>
+      <c r="BE63">
+        <v>6.6</v>
+      </c>
+      <c r="BF63">
+        <v>2.28</v>
+      </c>
+      <c r="BG63">
+        <v>1.33</v>
+      </c>
+      <c r="BH63">
+        <v>3.4</v>
+      </c>
+      <c r="BI63">
+        <v>1.47</v>
+      </c>
+      <c r="BJ63">
+        <v>2.5</v>
+      </c>
+      <c r="BK63">
+        <v>2.06</v>
+      </c>
+      <c r="BL63">
+        <v>1.95</v>
+      </c>
+      <c r="BM63">
+        <v>2.2</v>
+      </c>
+      <c r="BN63">
+        <v>1.49</v>
+      </c>
+      <c r="BO63">
+        <v>2.8</v>
+      </c>
+      <c r="BP63">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7775677</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45779.65625</v>
+      </c>
+      <c r="F64">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>128</v>
+      </c>
+      <c r="P64" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q64">
+        <v>6.5</v>
+      </c>
+      <c r="R64">
+        <v>2.09</v>
+      </c>
+      <c r="S64">
+        <v>2.1</v>
+      </c>
+      <c r="T64">
+        <v>1.4</v>
+      </c>
+      <c r="U64">
+        <v>2.65</v>
+      </c>
+      <c r="V64">
+        <v>3.05</v>
+      </c>
+      <c r="W64">
+        <v>1.35</v>
+      </c>
+      <c r="X64">
+        <v>7.75</v>
+      </c>
+      <c r="Y64">
+        <v>1.07</v>
+      </c>
+      <c r="Z64">
+        <v>5.25</v>
+      </c>
+      <c r="AA64">
+        <v>3.83</v>
+      </c>
+      <c r="AB64">
+        <v>1.58</v>
+      </c>
+      <c r="AC64">
+        <v>1.06</v>
+      </c>
+      <c r="AD64">
+        <v>8.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.33</v>
+      </c>
+      <c r="AF64">
+        <v>3</v>
+      </c>
+      <c r="AG64">
+        <v>2.16</v>
+      </c>
+      <c r="AH64">
+        <v>1.71</v>
+      </c>
+      <c r="AI64">
+        <v>2.1</v>
+      </c>
+      <c r="AJ64">
+        <v>1.63</v>
+      </c>
+      <c r="AK64">
+        <v>2.3</v>
+      </c>
+      <c r="AL64">
+        <v>1.24</v>
+      </c>
+      <c r="AM64">
+        <v>1.14</v>
+      </c>
+      <c r="AN64">
+        <v>1.5</v>
+      </c>
+      <c r="AO64">
+        <v>1.33</v>
+      </c>
+      <c r="AP64">
+        <v>1.43</v>
+      </c>
+      <c r="AQ64">
+        <v>1.29</v>
+      </c>
+      <c r="AR64">
+        <v>1.6</v>
+      </c>
+      <c r="AS64">
+        <v>1.69</v>
+      </c>
+      <c r="AT64">
+        <v>3.29</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>7</v>
+      </c>
+      <c r="AW64">
+        <v>7</v>
+      </c>
+      <c r="AX64">
+        <v>7</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
+        <v>14</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>7</v>
+      </c>
+      <c r="BD64">
+        <v>2.7</v>
+      </c>
+      <c r="BE64">
+        <v>6.5</v>
+      </c>
+      <c r="BF64">
+        <v>1.64</v>
+      </c>
+      <c r="BG64">
+        <v>1.18</v>
+      </c>
+      <c r="BH64">
+        <v>3.55</v>
+      </c>
+      <c r="BI64">
+        <v>1.35</v>
+      </c>
+      <c r="BJ64">
+        <v>2.74</v>
+      </c>
+      <c r="BK64">
+        <v>1.6</v>
+      </c>
+      <c r="BL64">
+        <v>2.05</v>
+      </c>
+      <c r="BM64">
+        <v>2</v>
+      </c>
+      <c r="BN64">
+        <v>1.73</v>
+      </c>
+      <c r="BO64">
+        <v>2.5</v>
+      </c>
+      <c r="BP64">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7775676</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45779.65625</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>78</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>129</v>
+      </c>
+      <c r="P65" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q65">
+        <v>2.04</v>
+      </c>
+      <c r="R65">
+        <v>2.21</v>
+      </c>
+      <c r="S65">
+        <v>5.03</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>2.88</v>
+      </c>
+      <c r="V65">
+        <v>2.75</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>6.2</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>1.48</v>
+      </c>
+      <c r="AA65">
+        <v>4.16</v>
+      </c>
+      <c r="AB65">
+        <v>5.5</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>10</v>
+      </c>
+      <c r="AE65">
+        <v>1.24</v>
+      </c>
+      <c r="AF65">
+        <v>3.25</v>
+      </c>
+      <c r="AG65">
+        <v>1.9</v>
+      </c>
+      <c r="AH65">
+        <v>1.85</v>
+      </c>
+      <c r="AI65">
+        <v>1.93</v>
+      </c>
+      <c r="AJ65">
+        <v>1.82</v>
+      </c>
+      <c r="AK65">
+        <v>1.25</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>2.52</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1.71</v>
+      </c>
+      <c r="AQ65">
+        <v>1.29</v>
+      </c>
+      <c r="AR65">
+        <v>1.97</v>
+      </c>
+      <c r="AS65">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT65">
+        <v>2.91</v>
+      </c>
+      <c r="AU65">
+        <v>3</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>16</v>
+      </c>
+      <c r="AX65">
+        <v>3</v>
+      </c>
+      <c r="AY65">
+        <v>19</v>
+      </c>
+      <c r="AZ65">
+        <v>6</v>
+      </c>
+      <c r="BA65">
+        <v>10</v>
+      </c>
+      <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
+        <v>12</v>
+      </c>
+      <c r="BD65">
+        <v>1.47</v>
+      </c>
+      <c r="BE65">
+        <v>9</v>
+      </c>
+      <c r="BF65">
+        <v>4.3</v>
+      </c>
+      <c r="BG65">
+        <v>1.2</v>
+      </c>
+      <c r="BH65">
+        <v>3.85</v>
+      </c>
+      <c r="BI65">
+        <v>1.39</v>
+      </c>
+      <c r="BJ65">
+        <v>2.75</v>
+      </c>
+      <c r="BK65">
+        <v>1.82</v>
+      </c>
+      <c r="BL65">
+        <v>2.15</v>
+      </c>
+      <c r="BM65">
+        <v>2.04</v>
+      </c>
+      <c r="BN65">
+        <v>1.73</v>
+      </c>
+      <c r="BO65">
+        <v>2.71</v>
+      </c>
+      <c r="BP65">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7775678</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45779.65625</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>130</v>
+      </c>
+      <c r="P66" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q66">
+        <v>2.8</v>
+      </c>
+      <c r="R66">
+        <v>1.88</v>
+      </c>
+      <c r="S66">
+        <v>4.62</v>
+      </c>
+      <c r="T66">
+        <v>1.57</v>
+      </c>
+      <c r="U66">
+        <v>2.27</v>
+      </c>
+      <c r="V66">
+        <v>3.4</v>
+      </c>
+      <c r="W66">
+        <v>1.27</v>
+      </c>
+      <c r="X66">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>1.01</v>
+      </c>
+      <c r="Z66">
+        <v>2.22</v>
+      </c>
+      <c r="AA66">
+        <v>3</v>
+      </c>
+      <c r="AB66">
+        <v>3.65</v>
+      </c>
+      <c r="AC66">
+        <v>1.09</v>
+      </c>
+      <c r="AD66">
+        <v>6.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.5</v>
+      </c>
+      <c r="AF66">
+        <v>2.5</v>
+      </c>
+      <c r="AG66">
+        <v>2.41</v>
+      </c>
+      <c r="AH66">
+        <v>1.47</v>
+      </c>
+      <c r="AI66">
+        <v>2.1</v>
+      </c>
+      <c r="AJ66">
+        <v>1.67</v>
+      </c>
+      <c r="AK66">
+        <v>1.28</v>
+      </c>
+      <c r="AL66">
+        <v>1.36</v>
+      </c>
+      <c r="AM66">
+        <v>1.67</v>
+      </c>
+      <c r="AN66">
+        <v>1.67</v>
+      </c>
+      <c r="AO66">
+        <v>1.67</v>
+      </c>
+      <c r="AP66">
+        <v>1.86</v>
+      </c>
+      <c r="AQ66">
+        <v>1.43</v>
+      </c>
+      <c r="AR66">
+        <v>1.92</v>
+      </c>
+      <c r="AS66">
+        <v>1.67</v>
+      </c>
+      <c r="AT66">
+        <v>3.59</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>6</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>14</v>
+      </c>
+      <c r="AZ66">
+        <v>10</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
+      <c r="BC66">
+        <v>5</v>
+      </c>
+      <c r="BD66">
+        <v>1.65</v>
+      </c>
+      <c r="BE66">
+        <v>7.7</v>
+      </c>
+      <c r="BF66">
+        <v>2.91</v>
+      </c>
+      <c r="BG66">
+        <v>1.43</v>
+      </c>
+      <c r="BH66">
+        <v>2.91</v>
+      </c>
+      <c r="BI66">
+        <v>1.73</v>
+      </c>
+      <c r="BJ66">
+        <v>2.12</v>
+      </c>
+      <c r="BK66">
+        <v>2.05</v>
+      </c>
+      <c r="BL66">
+        <v>1.65</v>
+      </c>
+      <c r="BM66">
+        <v>2.8</v>
+      </c>
+      <c r="BN66">
+        <v>1.36</v>
+      </c>
+      <c r="BO66">
+        <v>3.78</v>
+      </c>
+      <c r="BP66">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,18 @@
     <t>['14', '31']</t>
   </si>
   <si>
+    <t>['40', '62', '90+6']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['26', '42']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['45+1', '81']</t>
   </si>
   <si>
@@ -475,9 +487,6 @@
     <t>['24', '29']</t>
   </si>
   <si>
-    <t>['48']</t>
-  </si>
-  <si>
     <t>['43', '45+4']</t>
   </si>
   <si>
@@ -521,6 +530,15 @@
   </si>
   <si>
     <t>['45+3', '58']</t>
+  </si>
+  <si>
+    <t>['7', '85']</t>
+  </si>
+  <si>
+    <t>['59', '90+7']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1159,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1425,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>1.17</v>
@@ -1759,7 +1777,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1840,7 +1858,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2249,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2455,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2583,7 +2601,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2661,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ9">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2995,7 +3013,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3076,7 +3094,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR11">
         <v>2.05</v>
@@ -3201,7 +3219,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3279,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ12">
         <v>1.29</v>
@@ -3407,7 +3425,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3485,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3613,7 +3631,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3694,7 +3712,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>1.46</v>
@@ -3819,7 +3837,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -3897,10 +3915,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>1.43</v>
@@ -4025,7 +4043,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4231,7 +4249,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4309,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4437,7 +4455,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4849,7 +4867,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -4930,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR20">
         <v>0.9</v>
@@ -5055,7 +5073,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5136,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5339,10 +5357,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5467,7 +5485,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5545,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23">
         <v>1.71</v>
@@ -5754,7 +5772,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR24">
         <v>1.36</v>
@@ -5879,7 +5897,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -5957,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.43</v>
@@ -6085,7 +6103,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6163,7 +6181,7 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ26">
         <v>1.29</v>
@@ -6369,10 +6387,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -6497,7 +6515,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6575,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR28">
         <v>1.81</v>
@@ -6784,7 +6802,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
         <v>1.92</v>
@@ -6909,7 +6927,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7115,7 +7133,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7196,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.77</v>
@@ -7321,7 +7339,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7733,7 +7751,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -8017,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.17</v>
@@ -8351,7 +8369,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8432,7 +8450,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR37">
         <v>1.78</v>
@@ -8635,10 +8653,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR38">
         <v>1.99</v>
@@ -8841,10 +8859,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
+        <v>1.71</v>
+      </c>
+      <c r="AQ39">
         <v>1.5</v>
-      </c>
-      <c r="AQ39">
-        <v>1.29</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -8969,7 +8987,7 @@
         <v>82</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9047,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ40">
         <v>1.29</v>
@@ -9175,7 +9193,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9256,7 +9274,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.63</v>
@@ -9459,10 +9477,10 @@
         <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>1.9</v>
@@ -9587,7 +9605,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9665,7 +9683,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1.71</v>
@@ -9871,10 +9889,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -9999,7 +10017,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10205,7 +10223,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10283,10 +10301,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10492,7 +10510,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR47">
         <v>1.97</v>
@@ -10617,7 +10635,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10695,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
         <v>1.43</v>
@@ -10823,7 +10841,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -10901,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -11029,7 +11047,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11235,7 +11253,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11316,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11441,7 +11459,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -11519,10 +11537,10 @@
         <v>0.6</v>
       </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.89</v>
@@ -11725,10 +11743,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -11934,7 +11952,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ54">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12059,7 +12077,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12137,7 +12155,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
         <v>1.43</v>
@@ -12343,10 +12361,10 @@
         <v>0.8</v>
       </c>
       <c r="AP56">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR56">
         <v>1.88</v>
@@ -12471,7 +12489,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12552,7 +12570,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ57">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.95</v>
@@ -12755,7 +12773,7 @@
         <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ58">
         <v>1.71</v>
@@ -12883,7 +12901,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13089,7 +13107,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>2.61</v>
@@ -13167,7 +13185,7 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.43</v>
@@ -13295,7 +13313,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q61">
         <v>3.05</v>
@@ -13376,7 +13394,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ61">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13707,7 +13725,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>3.28</v>
@@ -13913,7 +13931,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14119,7 +14137,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q65">
         <v>2.04</v>
@@ -14200,7 +14218,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.97</v>
@@ -14403,7 +14421,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.43</v>
@@ -14482,6 +14500,1036 @@
       </c>
       <c r="BP66">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7775682</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45782.54166666666</v>
+      </c>
+      <c r="F67">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>131</v>
+      </c>
+      <c r="P67" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q67">
+        <v>2.45</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
+        <v>4.5</v>
+      </c>
+      <c r="T67">
+        <v>1.48</v>
+      </c>
+      <c r="U67">
+        <v>2.75</v>
+      </c>
+      <c r="V67">
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <v>1.3</v>
+      </c>
+      <c r="X67">
+        <v>8.5</v>
+      </c>
+      <c r="Y67">
+        <v>1.05</v>
+      </c>
+      <c r="Z67">
+        <v>1.85</v>
+      </c>
+      <c r="AA67">
+        <v>3.5</v>
+      </c>
+      <c r="AB67">
+        <v>4</v>
+      </c>
+      <c r="AC67">
+        <v>1.06</v>
+      </c>
+      <c r="AD67">
+        <v>8.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.3</v>
+      </c>
+      <c r="AF67">
+        <v>2.8</v>
+      </c>
+      <c r="AG67">
+        <v>2.05</v>
+      </c>
+      <c r="AH67">
+        <v>1.62</v>
+      </c>
+      <c r="AI67">
+        <v>1.9</v>
+      </c>
+      <c r="AJ67">
+        <v>1.78</v>
+      </c>
+      <c r="AK67">
+        <v>1.25</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>1.91</v>
+      </c>
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>0.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.71</v>
+      </c>
+      <c r="AQ67">
+        <v>0.29</v>
+      </c>
+      <c r="AR67">
+        <v>1.44</v>
+      </c>
+      <c r="AS67">
+        <v>1.13</v>
+      </c>
+      <c r="AT67">
+        <v>2.57</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
+        <v>13</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>18</v>
+      </c>
+      <c r="AZ67">
+        <v>6</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>6</v>
+      </c>
+      <c r="BD67">
+        <v>1.72</v>
+      </c>
+      <c r="BE67">
+        <v>8.5</v>
+      </c>
+      <c r="BF67">
+        <v>2.62</v>
+      </c>
+      <c r="BG67">
+        <v>1.25</v>
+      </c>
+      <c r="BH67">
+        <v>4</v>
+      </c>
+      <c r="BI67">
+        <v>1.36</v>
+      </c>
+      <c r="BJ67">
+        <v>3</v>
+      </c>
+      <c r="BK67">
+        <v>1.6</v>
+      </c>
+      <c r="BL67">
+        <v>1.96</v>
+      </c>
+      <c r="BM67">
+        <v>2.12</v>
+      </c>
+      <c r="BN67">
+        <v>1.61</v>
+      </c>
+      <c r="BO67">
+        <v>2.7</v>
+      </c>
+      <c r="BP67">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7775683</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45782.54166666666</v>
+      </c>
+      <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>132</v>
+      </c>
+      <c r="P68" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q68">
+        <v>3.2</v>
+      </c>
+      <c r="R68">
+        <v>1.98</v>
+      </c>
+      <c r="S68">
+        <v>3.67</v>
+      </c>
+      <c r="T68">
+        <v>1.5</v>
+      </c>
+      <c r="U68">
+        <v>2.5</v>
+      </c>
+      <c r="V68">
+        <v>3.3</v>
+      </c>
+      <c r="W68">
+        <v>1.28</v>
+      </c>
+      <c r="X68">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y68">
+        <v>1.01</v>
+      </c>
+      <c r="Z68">
+        <v>2.43</v>
+      </c>
+      <c r="AA68">
+        <v>3</v>
+      </c>
+      <c r="AB68">
+        <v>2.73</v>
+      </c>
+      <c r="AC68">
+        <v>1.07</v>
+      </c>
+      <c r="AD68">
+        <v>7.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.44</v>
+      </c>
+      <c r="AF68">
+        <v>2.67</v>
+      </c>
+      <c r="AG68">
+        <v>2.25</v>
+      </c>
+      <c r="AH68">
+        <v>1.58</v>
+      </c>
+      <c r="AI68">
+        <v>1.95</v>
+      </c>
+      <c r="AJ68">
+        <v>1.8</v>
+      </c>
+      <c r="AK68">
+        <v>1.3</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>1.5</v>
+      </c>
+      <c r="AN68">
+        <v>1.67</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>1.43</v>
+      </c>
+      <c r="AQ68">
+        <v>1.29</v>
+      </c>
+      <c r="AR68">
+        <v>1.65</v>
+      </c>
+      <c r="AS68">
+        <v>1.32</v>
+      </c>
+      <c r="AT68">
+        <v>2.97</v>
+      </c>
+      <c r="AU68">
+        <v>11</v>
+      </c>
+      <c r="AV68">
+        <v>9</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>12</v>
+      </c>
+      <c r="AY68">
+        <v>19</v>
+      </c>
+      <c r="AZ68">
+        <v>21</v>
+      </c>
+      <c r="BA68">
+        <v>2</v>
+      </c>
+      <c r="BB68">
+        <v>14</v>
+      </c>
+      <c r="BC68">
+        <v>16</v>
+      </c>
+      <c r="BD68">
+        <v>1.9</v>
+      </c>
+      <c r="BE68">
+        <v>6.5</v>
+      </c>
+      <c r="BF68">
+        <v>2.34</v>
+      </c>
+      <c r="BG68">
+        <v>1.27</v>
+      </c>
+      <c r="BH68">
+        <v>3.5</v>
+      </c>
+      <c r="BI68">
+        <v>1.47</v>
+      </c>
+      <c r="BJ68">
+        <v>2.5</v>
+      </c>
+      <c r="BK68">
+        <v>1.8</v>
+      </c>
+      <c r="BL68">
+        <v>1.91</v>
+      </c>
+      <c r="BM68">
+        <v>2.25</v>
+      </c>
+      <c r="BN68">
+        <v>1.53</v>
+      </c>
+      <c r="BO68">
+        <v>2.95</v>
+      </c>
+      <c r="BP68">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7775685</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45782.54166666666</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P69" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q69">
+        <v>2.04</v>
+      </c>
+      <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>7</v>
+      </c>
+      <c r="T69">
+        <v>1.39</v>
+      </c>
+      <c r="U69">
+        <v>2.8</v>
+      </c>
+      <c r="V69">
+        <v>2.88</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>8</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>1.58</v>
+      </c>
+      <c r="AA69">
+        <v>3.75</v>
+      </c>
+      <c r="AB69">
+        <v>6.1</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>8.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.28</v>
+      </c>
+      <c r="AF69">
+        <v>3.1</v>
+      </c>
+      <c r="AG69">
+        <v>2.08</v>
+      </c>
+      <c r="AH69">
+        <v>1.75</v>
+      </c>
+      <c r="AI69">
+        <v>2.2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.58</v>
+      </c>
+      <c r="AK69">
+        <v>1.11</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>2.5</v>
+      </c>
+      <c r="AN69">
+        <v>1.5</v>
+      </c>
+      <c r="AO69">
+        <v>1.29</v>
+      </c>
+      <c r="AP69">
+        <v>1.29</v>
+      </c>
+      <c r="AQ69">
+        <v>1.5</v>
+      </c>
+      <c r="AR69">
+        <v>2.05</v>
+      </c>
+      <c r="AS69">
+        <v>0.92</v>
+      </c>
+      <c r="AT69">
+        <v>2.97</v>
+      </c>
+      <c r="AU69">
+        <v>4</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>23</v>
+      </c>
+      <c r="AX69">
+        <v>9</v>
+      </c>
+      <c r="AY69">
+        <v>27</v>
+      </c>
+      <c r="AZ69">
+        <v>12</v>
+      </c>
+      <c r="BA69">
+        <v>10</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>13</v>
+      </c>
+      <c r="BD69">
+        <v>1.34</v>
+      </c>
+      <c r="BE69">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF69">
+        <v>4.4</v>
+      </c>
+      <c r="BG69">
+        <v>1.27</v>
+      </c>
+      <c r="BH69">
+        <v>3.14</v>
+      </c>
+      <c r="BI69">
+        <v>1.55</v>
+      </c>
+      <c r="BJ69">
+        <v>2.3</v>
+      </c>
+      <c r="BK69">
+        <v>1.91</v>
+      </c>
+      <c r="BL69">
+        <v>1.77</v>
+      </c>
+      <c r="BM69">
+        <v>2.4</v>
+      </c>
+      <c r="BN69">
+        <v>1.5</v>
+      </c>
+      <c r="BO69">
+        <v>3.34</v>
+      </c>
+      <c r="BP69">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7775684</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45782.625</v>
+      </c>
+      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>133</v>
+      </c>
+      <c r="P70" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q70">
+        <v>1.85</v>
+      </c>
+      <c r="R70">
+        <v>2.43</v>
+      </c>
+      <c r="S70">
+        <v>6.75</v>
+      </c>
+      <c r="T70">
+        <v>1.32</v>
+      </c>
+      <c r="U70">
+        <v>3.1</v>
+      </c>
+      <c r="V70">
+        <v>2.5</v>
+      </c>
+      <c r="W70">
+        <v>1.48</v>
+      </c>
+      <c r="X70">
+        <v>6</v>
+      </c>
+      <c r="Y70">
+        <v>1.11</v>
+      </c>
+      <c r="Z70">
+        <v>1.29</v>
+      </c>
+      <c r="AA70">
+        <v>4.8</v>
+      </c>
+      <c r="AB70">
+        <v>8.4</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>11.8</v>
+      </c>
+      <c r="AE70">
+        <v>1.25</v>
+      </c>
+      <c r="AF70">
+        <v>3.8</v>
+      </c>
+      <c r="AG70">
+        <v>1.67</v>
+      </c>
+      <c r="AH70">
+        <v>2</v>
+      </c>
+      <c r="AI70">
+        <v>2.13</v>
+      </c>
+      <c r="AJ70">
+        <v>1.75</v>
+      </c>
+      <c r="AK70">
+        <v>1.07</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>3.1</v>
+      </c>
+      <c r="AN70">
+        <v>1.83</v>
+      </c>
+      <c r="AO70">
+        <v>0.67</v>
+      </c>
+      <c r="AP70">
+        <v>2</v>
+      </c>
+      <c r="AQ70">
+        <v>0.57</v>
+      </c>
+      <c r="AR70">
+        <v>1.78</v>
+      </c>
+      <c r="AS70">
+        <v>1.22</v>
+      </c>
+      <c r="AT70">
+        <v>3</v>
+      </c>
+      <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>2</v>
+      </c>
+      <c r="AW70">
+        <v>11</v>
+      </c>
+      <c r="AX70">
+        <v>11</v>
+      </c>
+      <c r="AY70">
+        <v>19</v>
+      </c>
+      <c r="AZ70">
+        <v>13</v>
+      </c>
+      <c r="BA70">
+        <v>8</v>
+      </c>
+      <c r="BB70">
+        <v>5</v>
+      </c>
+      <c r="BC70">
+        <v>13</v>
+      </c>
+      <c r="BD70">
+        <v>1.25</v>
+      </c>
+      <c r="BE70">
+        <v>11.25</v>
+      </c>
+      <c r="BF70">
+        <v>4.2</v>
+      </c>
+      <c r="BG70">
+        <v>1.25</v>
+      </c>
+      <c r="BH70">
+        <v>3.4</v>
+      </c>
+      <c r="BI70">
+        <v>1.49</v>
+      </c>
+      <c r="BJ70">
+        <v>2.38</v>
+      </c>
+      <c r="BK70">
+        <v>1.79</v>
+      </c>
+      <c r="BL70">
+        <v>1.95</v>
+      </c>
+      <c r="BM70">
+        <v>2.2</v>
+      </c>
+      <c r="BN70">
+        <v>1.62</v>
+      </c>
+      <c r="BO70">
+        <v>2.8</v>
+      </c>
+      <c r="BP70">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7775681</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45782.65625</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>134</v>
+      </c>
+      <c r="P71" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q71">
+        <v>3.12</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>3.58</v>
+      </c>
+      <c r="T71">
+        <v>1.48</v>
+      </c>
+      <c r="U71">
+        <v>2.4</v>
+      </c>
+      <c r="V71">
+        <v>3.18</v>
+      </c>
+      <c r="W71">
+        <v>1.3</v>
+      </c>
+      <c r="X71">
+        <v>7.9</v>
+      </c>
+      <c r="Y71">
+        <v>1.02</v>
+      </c>
+      <c r="Z71">
+        <v>2.29</v>
+      </c>
+      <c r="AA71">
+        <v>3</v>
+      </c>
+      <c r="AB71">
+        <v>3.02</v>
+      </c>
+      <c r="AC71">
+        <v>1.07</v>
+      </c>
+      <c r="AD71">
+        <v>7</v>
+      </c>
+      <c r="AE71">
+        <v>1.37</v>
+      </c>
+      <c r="AF71">
+        <v>2.8</v>
+      </c>
+      <c r="AG71">
+        <v>2.2</v>
+      </c>
+      <c r="AH71">
+        <v>1.55</v>
+      </c>
+      <c r="AI71">
+        <v>1.9</v>
+      </c>
+      <c r="AJ71">
+        <v>1.8</v>
+      </c>
+      <c r="AK71">
+        <v>1.35</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>1.57</v>
+      </c>
+      <c r="AN71">
+        <v>1.86</v>
+      </c>
+      <c r="AO71">
+        <v>1.17</v>
+      </c>
+      <c r="AP71">
+        <v>2</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1.84</v>
+      </c>
+      <c r="AS71">
+        <v>1.37</v>
+      </c>
+      <c r="AT71">
+        <v>3.21</v>
+      </c>
+      <c r="AU71">
+        <v>3</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>7</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>10</v>
+      </c>
+      <c r="AZ71">
+        <v>10</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>1.59</v>
+      </c>
+      <c r="BE71">
+        <v>7.8</v>
+      </c>
+      <c r="BF71">
+        <v>2.65</v>
+      </c>
+      <c r="BG71">
+        <v>1.36</v>
+      </c>
+      <c r="BH71">
+        <v>2.8</v>
+      </c>
+      <c r="BI71">
+        <v>1.66</v>
+      </c>
+      <c r="BJ71">
+        <v>2.14</v>
+      </c>
+      <c r="BK71">
+        <v>2.44</v>
+      </c>
+      <c r="BL71">
+        <v>1.7</v>
+      </c>
+      <c r="BM71">
+        <v>2.57</v>
+      </c>
+      <c r="BN71">
+        <v>1.48</v>
+      </c>
+      <c r="BO71">
+        <v>3.4</v>
+      </c>
+      <c r="BP71">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,15 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['48', '90']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['50', '53', '90+3']</t>
+  </si>
+  <si>
     <t>['45+1', '81']</t>
   </si>
   <si>
@@ -539,6 +548,12 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['24', '81']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1174,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1237,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1443,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1652,7 +1667,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ4">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1777,7 +1792,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2601,7 +2616,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2682,7 +2697,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2885,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10">
         <v>1.43</v>
@@ -3013,7 +3028,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3219,7 +3234,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3297,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.29</v>
@@ -3425,7 +3440,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3506,7 +3521,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>1.54</v>
@@ -3631,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3709,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1.29</v>
@@ -3837,7 +3852,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -4043,7 +4058,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4124,7 +4139,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ16">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4249,7 +4264,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4455,7 +4470,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4742,7 +4757,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>2.01</v>
@@ -4867,7 +4882,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -4945,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20">
         <v>0.29</v>
@@ -5073,7 +5088,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5151,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21">
         <v>1.29</v>
@@ -5357,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5485,7 +5500,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5563,10 +5578,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.82</v>
@@ -5769,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>0.57</v>
@@ -5897,7 +5912,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -5978,7 +5993,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>1.72</v>
@@ -6103,7 +6118,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6515,7 +6530,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6593,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.29</v>
@@ -6927,7 +6942,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7008,7 +7023,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR30">
         <v>1.87</v>
@@ -7133,7 +7148,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7211,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
         <v>1.77</v>
@@ -7339,7 +7354,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7420,7 +7435,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.2</v>
@@ -7623,10 +7638,10 @@
         <v>2.33</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.68</v>
@@ -7751,7 +7766,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -8035,10 +8050,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8369,7 +8384,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9193,7 +9208,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9271,10 +9286,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>1.63</v>
@@ -9477,7 +9492,7 @@
         <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1.29</v>
@@ -9605,7 +9620,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9686,7 +9701,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>2.04</v>
@@ -9889,7 +9904,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10017,7 +10032,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10098,7 +10113,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ45">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -10223,7 +10238,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10301,7 +10316,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
         <v>0.29</v>
@@ -10635,7 +10650,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10841,7 +10856,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -10922,7 +10937,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>1.6</v>
@@ -11047,7 +11062,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11253,7 +11268,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11331,7 +11346,7 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
         <v>0.57</v>
@@ -11459,7 +11474,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -11537,7 +11552,7 @@
         <v>0.6</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -11746,7 +11761,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -11949,7 +11964,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12077,7 +12092,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12155,10 +12170,10 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR55">
         <v>1.84</v>
@@ -12489,7 +12504,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12570,7 +12585,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR57">
         <v>1.95</v>
@@ -12776,7 +12791,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ58">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.65</v>
@@ -12901,7 +12916,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -12979,10 +12994,10 @@
         <v>1.4</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>1.59</v>
@@ -13107,7 +13122,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>2.61</v>
@@ -13185,7 +13200,7 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ60">
         <v>1.43</v>
@@ -13313,7 +13328,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q61">
         <v>3.05</v>
@@ -13600,7 +13615,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.73</v>
@@ -13725,7 +13740,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>3.28</v>
@@ -13806,7 +13821,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.53</v>
@@ -13931,7 +13946,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14009,7 +14024,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
         <v>1.29</v>
@@ -14137,7 +14152,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>2.04</v>
@@ -14549,7 +14564,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>2.45</v>
@@ -14755,7 +14770,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -14961,7 +14976,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>2.04</v>
@@ -15039,7 +15054,7 @@
         <v>1.29</v>
       </c>
       <c r="AP69">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15245,7 +15260,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ70">
         <v>0.57</v>
@@ -15454,7 +15469,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR71">
         <v>1.84</v>
@@ -15530,6 +15545,830 @@
       </c>
       <c r="BP71">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7775687</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45786.65625</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>135</v>
+      </c>
+      <c r="P72" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q72">
+        <v>3.26</v>
+      </c>
+      <c r="R72">
+        <v>1.75</v>
+      </c>
+      <c r="S72">
+        <v>4.1</v>
+      </c>
+      <c r="T72">
+        <v>1.49</v>
+      </c>
+      <c r="U72">
+        <v>2.6</v>
+      </c>
+      <c r="V72">
+        <v>3.34</v>
+      </c>
+      <c r="W72">
+        <v>1.28</v>
+      </c>
+      <c r="X72">
+        <v>9</v>
+      </c>
+      <c r="Y72">
+        <v>1.05</v>
+      </c>
+      <c r="Z72">
+        <v>2.49</v>
+      </c>
+      <c r="AA72">
+        <v>3.04</v>
+      </c>
+      <c r="AB72">
+        <v>3.31</v>
+      </c>
+      <c r="AC72">
+        <v>1.08</v>
+      </c>
+      <c r="AD72">
+        <v>6.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.43</v>
+      </c>
+      <c r="AF72">
+        <v>2.6</v>
+      </c>
+      <c r="AG72">
+        <v>2.45</v>
+      </c>
+      <c r="AH72">
+        <v>1.5</v>
+      </c>
+      <c r="AI72">
+        <v>2.05</v>
+      </c>
+      <c r="AJ72">
+        <v>1.68</v>
+      </c>
+      <c r="AK72">
+        <v>1.35</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>1.6</v>
+      </c>
+      <c r="AN72">
+        <v>1.29</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>1.5</v>
+      </c>
+      <c r="AQ72">
+        <v>0.88</v>
+      </c>
+      <c r="AR72">
+        <v>2.13</v>
+      </c>
+      <c r="AS72">
+        <v>1.38</v>
+      </c>
+      <c r="AT72">
+        <v>3.51</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>8</v>
+      </c>
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>9</v>
+      </c>
+      <c r="AY72">
+        <v>11</v>
+      </c>
+      <c r="AZ72">
+        <v>17</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>6</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>1.68</v>
+      </c>
+      <c r="BE72">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF72">
+        <v>2.43</v>
+      </c>
+      <c r="BG72">
+        <v>1.49</v>
+      </c>
+      <c r="BH72">
+        <v>2.56</v>
+      </c>
+      <c r="BI72">
+        <v>1.84</v>
+      </c>
+      <c r="BJ72">
+        <v>2.1</v>
+      </c>
+      <c r="BK72">
+        <v>2.49</v>
+      </c>
+      <c r="BL72">
+        <v>1.68</v>
+      </c>
+      <c r="BM72">
+        <v>3.08</v>
+      </c>
+      <c r="BN72">
+        <v>1.3</v>
+      </c>
+      <c r="BO72">
+        <v>4.1</v>
+      </c>
+      <c r="BP72">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7775686</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45786.65625</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>97</v>
+      </c>
+      <c r="P73" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q73">
+        <v>4.6</v>
+      </c>
+      <c r="R73">
+        <v>2.01</v>
+      </c>
+      <c r="S73">
+        <v>2.32</v>
+      </c>
+      <c r="T73">
+        <v>1.46</v>
+      </c>
+      <c r="U73">
+        <v>2.5</v>
+      </c>
+      <c r="V73">
+        <v>3.42</v>
+      </c>
+      <c r="W73">
+        <v>1.32</v>
+      </c>
+      <c r="X73">
+        <v>7.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>4.05</v>
+      </c>
+      <c r="AA73">
+        <v>3.4</v>
+      </c>
+      <c r="AB73">
+        <v>1.79</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>7.25</v>
+      </c>
+      <c r="AE73">
+        <v>1.41</v>
+      </c>
+      <c r="AF73">
+        <v>2.7</v>
+      </c>
+      <c r="AG73">
+        <v>2.45</v>
+      </c>
+      <c r="AH73">
+        <v>1.6</v>
+      </c>
+      <c r="AI73">
+        <v>2.05</v>
+      </c>
+      <c r="AJ73">
+        <v>1.7</v>
+      </c>
+      <c r="AK73">
+        <v>1.97</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>1.22</v>
+      </c>
+      <c r="AN73">
+        <v>1.43</v>
+      </c>
+      <c r="AO73">
+        <v>1.17</v>
+      </c>
+      <c r="AP73">
+        <v>1.25</v>
+      </c>
+      <c r="AQ73">
+        <v>1.43</v>
+      </c>
+      <c r="AR73">
+        <v>1.54</v>
+      </c>
+      <c r="AS73">
+        <v>1.26</v>
+      </c>
+      <c r="AT73">
+        <v>2.8</v>
+      </c>
+      <c r="AU73">
+        <v>5</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>7</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>12</v>
+      </c>
+      <c r="AZ73">
+        <v>12</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>12</v>
+      </c>
+      <c r="BC73">
+        <v>17</v>
+      </c>
+      <c r="BD73">
+        <v>2.49</v>
+      </c>
+      <c r="BE73">
+        <v>8.5</v>
+      </c>
+      <c r="BF73">
+        <v>1.65</v>
+      </c>
+      <c r="BG73">
+        <v>1.33</v>
+      </c>
+      <c r="BH73">
+        <v>3.5</v>
+      </c>
+      <c r="BI73">
+        <v>1.44</v>
+      </c>
+      <c r="BJ73">
+        <v>2.23</v>
+      </c>
+      <c r="BK73">
+        <v>1.72</v>
+      </c>
+      <c r="BL73">
+        <v>1.91</v>
+      </c>
+      <c r="BM73">
+        <v>2.14</v>
+      </c>
+      <c r="BN73">
+        <v>1.53</v>
+      </c>
+      <c r="BO73">
+        <v>3.04</v>
+      </c>
+      <c r="BP73">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7775688</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45786.65625</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>136</v>
+      </c>
+      <c r="P74" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q74">
+        <v>3.8</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>2.7</v>
+      </c>
+      <c r="T74">
+        <v>1.38</v>
+      </c>
+      <c r="U74">
+        <v>2.62</v>
+      </c>
+      <c r="V74">
+        <v>2.9</v>
+      </c>
+      <c r="W74">
+        <v>1.36</v>
+      </c>
+      <c r="X74">
+        <v>7.75</v>
+      </c>
+      <c r="Y74">
+        <v>1.07</v>
+      </c>
+      <c r="Z74">
+        <v>3.1</v>
+      </c>
+      <c r="AA74">
+        <v>3.35</v>
+      </c>
+      <c r="AB74">
+        <v>2.15</v>
+      </c>
+      <c r="AC74">
+        <v>1.06</v>
+      </c>
+      <c r="AD74">
+        <v>9</v>
+      </c>
+      <c r="AE74">
+        <v>1.33</v>
+      </c>
+      <c r="AF74">
+        <v>3</v>
+      </c>
+      <c r="AG74">
+        <v>2.02</v>
+      </c>
+      <c r="AH74">
+        <v>1.81</v>
+      </c>
+      <c r="AI74">
+        <v>1.85</v>
+      </c>
+      <c r="AJ74">
+        <v>1.85</v>
+      </c>
+      <c r="AK74">
+        <v>1.3</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>1.28</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>1.43</v>
+      </c>
+      <c r="AP74">
+        <v>1.29</v>
+      </c>
+      <c r="AQ74">
+        <v>1.25</v>
+      </c>
+      <c r="AR74">
+        <v>1.51</v>
+      </c>
+      <c r="AS74">
+        <v>1.65</v>
+      </c>
+      <c r="AT74">
+        <v>3.16</v>
+      </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
+        <v>9</v>
+      </c>
+      <c r="AX74">
+        <v>7</v>
+      </c>
+      <c r="AY74">
+        <v>16</v>
+      </c>
+      <c r="AZ74">
+        <v>11</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>7</v>
+      </c>
+      <c r="BC74">
+        <v>13</v>
+      </c>
+      <c r="BD74">
+        <v>2.2</v>
+      </c>
+      <c r="BE74">
+        <v>7.6</v>
+      </c>
+      <c r="BF74">
+        <v>1.95</v>
+      </c>
+      <c r="BG74">
+        <v>1.29</v>
+      </c>
+      <c r="BH74">
+        <v>3.75</v>
+      </c>
+      <c r="BI74">
+        <v>1.43</v>
+      </c>
+      <c r="BJ74">
+        <v>2.55</v>
+      </c>
+      <c r="BK74">
+        <v>1.7</v>
+      </c>
+      <c r="BL74">
+        <v>2.11</v>
+      </c>
+      <c r="BM74">
+        <v>2.07</v>
+      </c>
+      <c r="BN74">
+        <v>1.7</v>
+      </c>
+      <c r="BO74">
+        <v>2.71</v>
+      </c>
+      <c r="BP74">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7775689</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45786.65625</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>76</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>137</v>
+      </c>
+      <c r="P75" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>6.5</v>
+      </c>
+      <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.55</v>
+      </c>
+      <c r="V75">
+        <v>3.1</v>
+      </c>
+      <c r="W75">
+        <v>1.32</v>
+      </c>
+      <c r="X75">
+        <v>6.8</v>
+      </c>
+      <c r="Y75">
+        <v>1.03</v>
+      </c>
+      <c r="Z75">
+        <v>1.44</v>
+      </c>
+      <c r="AA75">
+        <v>3.9</v>
+      </c>
+      <c r="AB75">
+        <v>6</v>
+      </c>
+      <c r="AC75">
+        <v>1.02</v>
+      </c>
+      <c r="AD75">
+        <v>8.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.36</v>
+      </c>
+      <c r="AF75">
+        <v>3.13</v>
+      </c>
+      <c r="AG75">
+        <v>2.05</v>
+      </c>
+      <c r="AH75">
+        <v>1.65</v>
+      </c>
+      <c r="AI75">
+        <v>2.2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.57</v>
+      </c>
+      <c r="AK75">
+        <v>1.24</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>2.5</v>
+      </c>
+      <c r="AN75">
+        <v>2</v>
+      </c>
+      <c r="AO75">
+        <v>1.71</v>
+      </c>
+      <c r="AP75">
+        <v>2.13</v>
+      </c>
+      <c r="AQ75">
+        <v>1.5</v>
+      </c>
+      <c r="AR75">
+        <v>1.88</v>
+      </c>
+      <c r="AS75">
+        <v>1.5</v>
+      </c>
+      <c r="AT75">
+        <v>3.38</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>6</v>
+      </c>
+      <c r="AY75">
+        <v>13</v>
+      </c>
+      <c r="AZ75">
+        <v>6</v>
+      </c>
+      <c r="BA75">
+        <v>4</v>
+      </c>
+      <c r="BB75">
+        <v>5</v>
+      </c>
+      <c r="BC75">
+        <v>9</v>
+      </c>
+      <c r="BD75">
+        <v>1.25</v>
+      </c>
+      <c r="BE75">
+        <v>8.4</v>
+      </c>
+      <c r="BF75">
+        <v>4.2</v>
+      </c>
+      <c r="BG75">
+        <v>1.23</v>
+      </c>
+      <c r="BH75">
+        <v>3.42</v>
+      </c>
+      <c r="BI75">
+        <v>1.5</v>
+      </c>
+      <c r="BJ75">
+        <v>2.45</v>
+      </c>
+      <c r="BK75">
+        <v>1.81</v>
+      </c>
+      <c r="BL75">
+        <v>1.89</v>
+      </c>
+      <c r="BM75">
+        <v>2.2</v>
+      </c>
+      <c r="BN75">
+        <v>1.55</v>
+      </c>
+      <c r="BO75">
+        <v>2.8</v>
+      </c>
+      <c r="BP75">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>['24', '81']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1870,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2285,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3727,7 +3730,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.46</v>
@@ -4548,7 +4551,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ18">
         <v>1.29</v>
@@ -5169,7 +5172,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -6817,7 +6820,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.92</v>
@@ -7020,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ30">
         <v>1.43</v>
@@ -7844,7 +7847,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ34">
         <v>1.43</v>
@@ -9495,7 +9498,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.9</v>
@@ -10110,7 +10113,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ45">
         <v>1.25</v>
@@ -11555,7 +11558,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.89</v>
@@ -13406,7 +13409,7 @@
         <v>0.2</v>
       </c>
       <c r="AP61">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ61">
         <v>0.29</v>
@@ -13818,7 +13821,7 @@
         <v>1.83</v>
       </c>
       <c r="AP63">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14851,7 +14854,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.65</v>
@@ -16369,6 +16372,212 @@
       </c>
       <c r="BP75">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7775690</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45787.65625</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q76">
+        <v>3.65</v>
+      </c>
+      <c r="R76">
+        <v>2.15</v>
+      </c>
+      <c r="S76">
+        <v>2.58</v>
+      </c>
+      <c r="T76">
+        <v>1.35</v>
+      </c>
+      <c r="U76">
+        <v>3.24</v>
+      </c>
+      <c r="V76">
+        <v>2.5</v>
+      </c>
+      <c r="W76">
+        <v>1.46</v>
+      </c>
+      <c r="X76">
+        <v>6.3</v>
+      </c>
+      <c r="Y76">
+        <v>1.06</v>
+      </c>
+      <c r="Z76">
+        <v>3.5</v>
+      </c>
+      <c r="AA76">
+        <v>3.3</v>
+      </c>
+      <c r="AB76">
+        <v>2</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>10.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.25</v>
+      </c>
+      <c r="AF76">
+        <v>3.6</v>
+      </c>
+      <c r="AG76">
+        <v>1.73</v>
+      </c>
+      <c r="AH76">
+        <v>1.91</v>
+      </c>
+      <c r="AI76">
+        <v>1.61</v>
+      </c>
+      <c r="AJ76">
+        <v>2.15</v>
+      </c>
+      <c r="AK76">
+        <v>1.22</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>1.3</v>
+      </c>
+      <c r="AN76">
+        <v>0.71</v>
+      </c>
+      <c r="AO76">
+        <v>1.29</v>
+      </c>
+      <c r="AP76">
+        <v>0.63</v>
+      </c>
+      <c r="AQ76">
+        <v>1.5</v>
+      </c>
+      <c r="AR76">
+        <v>1.54</v>
+      </c>
+      <c r="AS76">
+        <v>1.47</v>
+      </c>
+      <c r="AT76">
+        <v>3.01</v>
+      </c>
+      <c r="AU76">
+        <v>3</v>
+      </c>
+      <c r="AV76">
+        <v>8</v>
+      </c>
+      <c r="AW76">
+        <v>6</v>
+      </c>
+      <c r="AX76">
+        <v>9</v>
+      </c>
+      <c r="AY76">
+        <v>9</v>
+      </c>
+      <c r="AZ76">
+        <v>17</v>
+      </c>
+      <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>8</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>2.12</v>
+      </c>
+      <c r="BE76">
+        <v>7.8</v>
+      </c>
+      <c r="BF76">
+        <v>1.72</v>
+      </c>
+      <c r="BG76">
+        <v>1.22</v>
+      </c>
+      <c r="BH76">
+        <v>3.8</v>
+      </c>
+      <c r="BI76">
+        <v>1.38</v>
+      </c>
+      <c r="BJ76">
+        <v>2.8</v>
+      </c>
+      <c r="BK76">
+        <v>1.65</v>
+      </c>
+      <c r="BL76">
+        <v>2.06</v>
+      </c>
+      <c r="BM76">
+        <v>1.98</v>
+      </c>
+      <c r="BN76">
+        <v>1.73</v>
+      </c>
+      <c r="BO76">
+        <v>2.5</v>
+      </c>
+      <c r="BP76">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,15 @@
     <t>['50', '53', '90+3']</t>
   </si>
   <si>
+    <t>['14', '89', '90+5']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['45+1', '81']</t>
   </si>
   <si>
@@ -557,6 +566,12 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['56', '78']</t>
+  </si>
+  <si>
+    <t>['25', '76', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1192,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1464,7 +1479,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1667,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1795,7 +1810,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2079,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2491,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2619,7 +2634,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2697,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -2903,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ10">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3031,7 +3046,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3109,10 +3124,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>2.05</v>
@@ -3237,7 +3252,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3318,7 +3333,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>1.77</v>
@@ -3443,7 +3458,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3521,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -3649,7 +3664,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3855,7 +3870,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -4061,7 +4076,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4139,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4267,7 +4282,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4345,10 +4360,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>1.58</v>
@@ -4473,7 +4488,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4554,7 +4569,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>2.63</v>
@@ -4757,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR19">
         <v>2.01</v>
@@ -4885,7 +4900,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -4963,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>0.9</v>
@@ -5091,7 +5106,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5169,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5503,7 +5518,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5790,7 +5805,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR24">
         <v>1.36</v>
@@ -5915,7 +5930,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -6121,7 +6136,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6199,10 +6214,10 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ26">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.55</v>
@@ -6405,7 +6420,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1.5</v>
@@ -6533,7 +6548,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6614,7 +6629,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR28">
         <v>1.81</v>
@@ -6817,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -6945,7 +6960,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7026,7 +7041,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ30">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>1.87</v>
@@ -7151,7 +7166,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7229,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ31">
         <v>0.88</v>
@@ -7357,7 +7372,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7435,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -7769,7 +7784,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -7850,7 +7865,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ34">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.64</v>
@@ -8056,7 +8071,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8259,10 +8274,10 @@
         <v>2.33</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.81</v>
@@ -8387,7 +8402,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8465,10 +8480,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ37">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.78</v>
@@ -8674,7 +8689,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR38">
         <v>1.99</v>
@@ -8877,7 +8892,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ39">
         <v>1.5</v>
@@ -9083,10 +9098,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -9211,7 +9226,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9623,7 +9638,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -10035,7 +10050,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10241,7 +10256,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10322,7 +10337,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ46">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10525,10 +10540,10 @@
         <v>0.25</v>
       </c>
       <c r="AP47">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ47">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.97</v>
@@ -10653,7 +10668,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10731,10 +10746,10 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.51</v>
@@ -10859,7 +10874,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -10937,10 +10952,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR49">
         <v>1.6</v>
@@ -11065,7 +11080,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11143,10 +11158,10 @@
         <v>1.4</v>
       </c>
       <c r="AP50">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11271,7 +11286,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11349,10 +11364,10 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11477,7 +11492,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -11761,7 +11776,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ53">
         <v>0.88</v>
@@ -12095,7 +12110,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12382,7 +12397,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR56">
         <v>1.88</v>
@@ -12507,7 +12522,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12585,7 +12600,7 @@
         <v>1.4</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57">
         <v>0.88</v>
@@ -12791,7 +12806,7 @@
         <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -12919,7 +12934,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -12997,10 +13012,10 @@
         <v>1.4</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR59">
         <v>1.59</v>
@@ -13125,7 +13140,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>2.61</v>
@@ -13206,7 +13221,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ60">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.76</v>
@@ -13331,7 +13346,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q61">
         <v>3.05</v>
@@ -13412,7 +13427,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ61">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13615,7 +13630,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -13743,7 +13758,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>3.28</v>
@@ -13949,7 +13964,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14030,7 +14045,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>1.6</v>
@@ -14155,7 +14170,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>2.04</v>
@@ -14233,7 +14248,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14442,7 +14457,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>1.92</v>
@@ -14567,7 +14582,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>2.45</v>
@@ -14645,10 +14660,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ67">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -14773,7 +14788,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -14851,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -14979,7 +14994,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>2.04</v>
@@ -15266,7 +15281,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ70">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR70">
         <v>1.78</v>
@@ -15597,7 +15612,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q72">
         <v>3.26</v>
@@ -15803,7 +15818,7 @@
         <v>97</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>4.6</v>
@@ -15884,7 +15899,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.54</v>
@@ -16087,7 +16102,7 @@
         <v>1.43</v>
       </c>
       <c r="AP74">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>1.25</v>
@@ -16421,7 +16436,7 @@
         <v>82</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q76">
         <v>3.65</v>
@@ -16578,6 +16593,1036 @@
       </c>
       <c r="BP76">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7775693</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45793.65625</v>
+      </c>
+      <c r="F77">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s">
+        <v>73</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>82</v>
+      </c>
+      <c r="P77" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q77">
+        <v>2.05</v>
+      </c>
+      <c r="R77">
+        <v>2.29</v>
+      </c>
+      <c r="S77">
+        <v>4.7</v>
+      </c>
+      <c r="T77">
+        <v>1.34</v>
+      </c>
+      <c r="U77">
+        <v>3.32</v>
+      </c>
+      <c r="V77">
+        <v>2.68</v>
+      </c>
+      <c r="W77">
+        <v>1.44</v>
+      </c>
+      <c r="X77">
+        <v>6.05</v>
+      </c>
+      <c r="Y77">
+        <v>1.1</v>
+      </c>
+      <c r="Z77">
+        <v>1.68</v>
+      </c>
+      <c r="AA77">
+        <v>3.7</v>
+      </c>
+      <c r="AB77">
+        <v>4.2</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>12</v>
+      </c>
+      <c r="AE77">
+        <v>1.19</v>
+      </c>
+      <c r="AF77">
+        <v>4.17</v>
+      </c>
+      <c r="AG77">
+        <v>1.73</v>
+      </c>
+      <c r="AH77">
+        <v>2.1</v>
+      </c>
+      <c r="AI77">
+        <v>1.67</v>
+      </c>
+      <c r="AJ77">
+        <v>2.15</v>
+      </c>
+      <c r="AK77">
+        <v>1.25</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>2.05</v>
+      </c>
+      <c r="AN77">
+        <v>1.43</v>
+      </c>
+      <c r="AO77">
+        <v>0.57</v>
+      </c>
+      <c r="AP77">
+        <v>1.25</v>
+      </c>
+      <c r="AQ77">
+        <v>0.88</v>
+      </c>
+      <c r="AR77">
+        <v>1.74</v>
+      </c>
+      <c r="AS77">
+        <v>1.22</v>
+      </c>
+      <c r="AT77">
+        <v>2.96</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
+        <v>11</v>
+      </c>
+      <c r="AX77">
+        <v>7</v>
+      </c>
+      <c r="AY77">
+        <v>17</v>
+      </c>
+      <c r="AZ77">
+        <v>13</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>5</v>
+      </c>
+      <c r="BC77">
+        <v>12</v>
+      </c>
+      <c r="BD77">
+        <v>1.5</v>
+      </c>
+      <c r="BE77">
+        <v>6.75</v>
+      </c>
+      <c r="BF77">
+        <v>3.16</v>
+      </c>
+      <c r="BG77">
+        <v>1.21</v>
+      </c>
+      <c r="BH77">
+        <v>3.75</v>
+      </c>
+      <c r="BI77">
+        <v>1.45</v>
+      </c>
+      <c r="BJ77">
+        <v>2.7</v>
+      </c>
+      <c r="BK77">
+        <v>1.65</v>
+      </c>
+      <c r="BL77">
+        <v>2.1</v>
+      </c>
+      <c r="BM77">
+        <v>2.05</v>
+      </c>
+      <c r="BN77">
+        <v>1.7</v>
+      </c>
+      <c r="BO77">
+        <v>2.92</v>
+      </c>
+      <c r="BP77">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7775694</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45793.65625</v>
+      </c>
+      <c r="F78">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>138</v>
+      </c>
+      <c r="P78" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q78">
+        <v>1.89</v>
+      </c>
+      <c r="R78">
+        <v>2.33</v>
+      </c>
+      <c r="S78">
+        <v>5.5</v>
+      </c>
+      <c r="T78">
+        <v>1.31</v>
+      </c>
+      <c r="U78">
+        <v>3.04</v>
+      </c>
+      <c r="V78">
+        <v>2.6</v>
+      </c>
+      <c r="W78">
+        <v>1.48</v>
+      </c>
+      <c r="X78">
+        <v>6.75</v>
+      </c>
+      <c r="Y78">
+        <v>1.09</v>
+      </c>
+      <c r="Z78">
+        <v>1.4</v>
+      </c>
+      <c r="AA78">
+        <v>4.35</v>
+      </c>
+      <c r="AB78">
+        <v>7.79</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>11</v>
+      </c>
+      <c r="AE78">
+        <v>1.25</v>
+      </c>
+      <c r="AF78">
+        <v>3.98</v>
+      </c>
+      <c r="AG78">
+        <v>1.73</v>
+      </c>
+      <c r="AH78">
+        <v>2</v>
+      </c>
+      <c r="AI78">
+        <v>1.95</v>
+      </c>
+      <c r="AJ78">
+        <v>1.8</v>
+      </c>
+      <c r="AK78">
+        <v>1.03</v>
+      </c>
+      <c r="AL78">
+        <v>1.17</v>
+      </c>
+      <c r="AM78">
+        <v>2.94</v>
+      </c>
+      <c r="AN78">
+        <v>2.14</v>
+      </c>
+      <c r="AO78">
+        <v>0.29</v>
+      </c>
+      <c r="AP78">
+        <v>2.25</v>
+      </c>
+      <c r="AQ78">
+        <v>0.25</v>
+      </c>
+      <c r="AR78">
+        <v>1.69</v>
+      </c>
+      <c r="AS78">
+        <v>1.08</v>
+      </c>
+      <c r="AT78">
+        <v>2.77</v>
+      </c>
+      <c r="AU78">
+        <v>7</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>8</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>15</v>
+      </c>
+      <c r="AZ78">
+        <v>11</v>
+      </c>
+      <c r="BA78">
+        <v>8</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.28</v>
+      </c>
+      <c r="BE78">
+        <v>8</v>
+      </c>
+      <c r="BF78">
+        <v>3.7</v>
+      </c>
+      <c r="BG78">
+        <v>1.18</v>
+      </c>
+      <c r="BH78">
+        <v>4.05</v>
+      </c>
+      <c r="BI78">
+        <v>1.3</v>
+      </c>
+      <c r="BJ78">
+        <v>2.97</v>
+      </c>
+      <c r="BK78">
+        <v>1.56</v>
+      </c>
+      <c r="BL78">
+        <v>2.21</v>
+      </c>
+      <c r="BM78">
+        <v>1.95</v>
+      </c>
+      <c r="BN78">
+        <v>1.76</v>
+      </c>
+      <c r="BO78">
+        <v>2.25</v>
+      </c>
+      <c r="BP78">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7775691</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45793.65625</v>
+      </c>
+      <c r="F79">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>139</v>
+      </c>
+      <c r="P79" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q79">
+        <v>2.8</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>4.1</v>
+      </c>
+      <c r="T79">
+        <v>1.42</v>
+      </c>
+      <c r="U79">
+        <v>2.6</v>
+      </c>
+      <c r="V79">
+        <v>3.14</v>
+      </c>
+      <c r="W79">
+        <v>1.32</v>
+      </c>
+      <c r="X79">
+        <v>8.1</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>2.15</v>
+      </c>
+      <c r="AA79">
+        <v>3.2</v>
+      </c>
+      <c r="AB79">
+        <v>3</v>
+      </c>
+      <c r="AC79">
+        <v>1.02</v>
+      </c>
+      <c r="AD79">
+        <v>7.8</v>
+      </c>
+      <c r="AE79">
+        <v>1.4</v>
+      </c>
+      <c r="AF79">
+        <v>2.78</v>
+      </c>
+      <c r="AG79">
+        <v>2.22</v>
+      </c>
+      <c r="AH79">
+        <v>1.68</v>
+      </c>
+      <c r="AI79">
+        <v>1.94</v>
+      </c>
+      <c r="AJ79">
+        <v>1.89</v>
+      </c>
+      <c r="AK79">
+        <v>1.33</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.6</v>
+      </c>
+      <c r="AN79">
+        <v>1.71</v>
+      </c>
+      <c r="AO79">
+        <v>1.43</v>
+      </c>
+      <c r="AP79">
+        <v>1.88</v>
+      </c>
+      <c r="AQ79">
+        <v>1.25</v>
+      </c>
+      <c r="AR79">
+        <v>1.98</v>
+      </c>
+      <c r="AS79">
+        <v>1.56</v>
+      </c>
+      <c r="AT79">
+        <v>3.54</v>
+      </c>
+      <c r="AU79">
+        <v>7</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>10</v>
+      </c>
+      <c r="AX79">
+        <v>10</v>
+      </c>
+      <c r="AY79">
+        <v>17</v>
+      </c>
+      <c r="AZ79">
+        <v>13</v>
+      </c>
+      <c r="BA79">
+        <v>4</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>6</v>
+      </c>
+      <c r="BD79">
+        <v>1.6</v>
+      </c>
+      <c r="BE79">
+        <v>7.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.45</v>
+      </c>
+      <c r="BG79">
+        <v>1.4</v>
+      </c>
+      <c r="BH79">
+        <v>3.12</v>
+      </c>
+      <c r="BI79">
+        <v>1.55</v>
+      </c>
+      <c r="BJ79">
+        <v>2.35</v>
+      </c>
+      <c r="BK79">
+        <v>1.89</v>
+      </c>
+      <c r="BL79">
+        <v>1.85</v>
+      </c>
+      <c r="BM79">
+        <v>2.37</v>
+      </c>
+      <c r="BN79">
+        <v>1.52</v>
+      </c>
+      <c r="BO79">
+        <v>3.15</v>
+      </c>
+      <c r="BP79">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7775692</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45793.65625</v>
+      </c>
+      <c r="F80">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>140</v>
+      </c>
+      <c r="P80" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q80">
+        <v>4.4</v>
+      </c>
+      <c r="R80">
+        <v>1.87</v>
+      </c>
+      <c r="S80">
+        <v>2.81</v>
+      </c>
+      <c r="T80">
+        <v>1.6</v>
+      </c>
+      <c r="U80">
+        <v>2.36</v>
+      </c>
+      <c r="V80">
+        <v>3.7</v>
+      </c>
+      <c r="W80">
+        <v>1.22</v>
+      </c>
+      <c r="X80">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>3.6</v>
+      </c>
+      <c r="AA80">
+        <v>3.08</v>
+      </c>
+      <c r="AB80">
+        <v>2.16</v>
+      </c>
+      <c r="AC80">
+        <v>1.13</v>
+      </c>
+      <c r="AD80">
+        <v>6.2</v>
+      </c>
+      <c r="AE80">
+        <v>1.56</v>
+      </c>
+      <c r="AF80">
+        <v>2.35</v>
+      </c>
+      <c r="AG80">
+        <v>2.71</v>
+      </c>
+      <c r="AH80">
+        <v>1.44</v>
+      </c>
+      <c r="AI80">
+        <v>2.31</v>
+      </c>
+      <c r="AJ80">
+        <v>1.64</v>
+      </c>
+      <c r="AK80">
+        <v>1.37</v>
+      </c>
+      <c r="AL80">
+        <v>1.3</v>
+      </c>
+      <c r="AM80">
+        <v>1.29</v>
+      </c>
+      <c r="AN80">
+        <v>1.71</v>
+      </c>
+      <c r="AO80">
+        <v>1.43</v>
+      </c>
+      <c r="AP80">
+        <v>1.63</v>
+      </c>
+      <c r="AQ80">
+        <v>1.38</v>
+      </c>
+      <c r="AR80">
+        <v>1.49</v>
+      </c>
+      <c r="AS80">
+        <v>1.29</v>
+      </c>
+      <c r="AT80">
+        <v>2.78</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>9</v>
+      </c>
+      <c r="AZ80">
+        <v>8</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
+      <c r="BB80">
+        <v>3</v>
+      </c>
+      <c r="BC80">
+        <v>8</v>
+      </c>
+      <c r="BD80">
+        <v>2.42</v>
+      </c>
+      <c r="BE80">
+        <v>6.5</v>
+      </c>
+      <c r="BF80">
+        <v>1.75</v>
+      </c>
+      <c r="BG80">
+        <v>1.42</v>
+      </c>
+      <c r="BH80">
+        <v>2.65</v>
+      </c>
+      <c r="BI80">
+        <v>1.67</v>
+      </c>
+      <c r="BJ80">
+        <v>2</v>
+      </c>
+      <c r="BK80">
+        <v>2.18</v>
+      </c>
+      <c r="BL80">
+        <v>1.64</v>
+      </c>
+      <c r="BM80">
+        <v>2.65</v>
+      </c>
+      <c r="BN80">
+        <v>1.4</v>
+      </c>
+      <c r="BO80">
+        <v>3.75</v>
+      </c>
+      <c r="BP80">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7775695</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45793.65625</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>85</v>
+      </c>
+      <c r="P81" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q81">
+        <v>5.25</v>
+      </c>
+      <c r="R81">
+        <v>2.18</v>
+      </c>
+      <c r="S81">
+        <v>2.19</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.85</v>
+      </c>
+      <c r="V81">
+        <v>2.8</v>
+      </c>
+      <c r="W81">
+        <v>1.37</v>
+      </c>
+      <c r="X81">
+        <v>6.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>5.3</v>
+      </c>
+      <c r="AA81">
+        <v>3.7</v>
+      </c>
+      <c r="AB81">
+        <v>1.53</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>9.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.25</v>
+      </c>
+      <c r="AF81">
+        <v>3.5</v>
+      </c>
+      <c r="AG81">
+        <v>1.98</v>
+      </c>
+      <c r="AH81">
+        <v>1.87</v>
+      </c>
+      <c r="AI81">
+        <v>1.83</v>
+      </c>
+      <c r="AJ81">
+        <v>1.75</v>
+      </c>
+      <c r="AK81">
+        <v>1.25</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.14</v>
+      </c>
+      <c r="AN81">
+        <v>1.29</v>
+      </c>
+      <c r="AO81">
+        <v>1.29</v>
+      </c>
+      <c r="AP81">
+        <v>1.13</v>
+      </c>
+      <c r="AQ81">
+        <v>1.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.57</v>
+      </c>
+      <c r="AS81">
+        <v>1.68</v>
+      </c>
+      <c r="AT81">
+        <v>3.25</v>
+      </c>
+      <c r="AU81">
+        <v>2</v>
+      </c>
+      <c r="AV81">
+        <v>6</v>
+      </c>
+      <c r="AW81">
+        <v>8</v>
+      </c>
+      <c r="AX81">
+        <v>7</v>
+      </c>
+      <c r="AY81">
+        <v>10</v>
+      </c>
+      <c r="AZ81">
+        <v>13</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>5</v>
+      </c>
+      <c r="BD81">
+        <v>4.16</v>
+      </c>
+      <c r="BE81">
+        <v>9.5</v>
+      </c>
+      <c r="BF81">
+        <v>1.37</v>
+      </c>
+      <c r="BG81">
+        <v>1.23</v>
+      </c>
+      <c r="BH81">
+        <v>3.6</v>
+      </c>
+      <c r="BI81">
+        <v>1.43</v>
+      </c>
+      <c r="BJ81">
+        <v>2.6</v>
+      </c>
+      <c r="BK81">
+        <v>1.74</v>
+      </c>
+      <c r="BL81">
+        <v>2</v>
+      </c>
+      <c r="BM81">
+        <v>2.1</v>
+      </c>
+      <c r="BN81">
+        <v>1.67</v>
+      </c>
+      <c r="BO81">
+        <v>2.74</v>
+      </c>
+      <c r="BP81">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['22', '36', '50', '69']</t>
   </si>
   <si>
     <t>['45+1', '81']</t>
@@ -933,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1195,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1476,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ3">
         <v>1.38</v>
@@ -1685,7 +1688,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1810,7 +1813,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2634,7 +2637,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2715,7 +2718,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3046,7 +3049,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3252,7 +3255,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3330,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3458,7 +3461,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3664,7 +3667,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3870,7 +3873,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -4076,7 +4079,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4157,7 +4160,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4282,7 +4285,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4488,7 +4491,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4900,7 +4903,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -5106,7 +5109,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5390,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ22">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5518,7 +5521,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5596,10 +5599,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>1.82</v>
@@ -5930,7 +5933,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -6136,7 +6139,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6548,7 +6551,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6626,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ28">
         <v>0.25</v>
@@ -6960,7 +6963,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7166,7 +7169,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7247,7 +7250,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ31">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR31">
         <v>1.77</v>
@@ -7372,7 +7375,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7659,7 +7662,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
         <v>1.68</v>
@@ -7784,7 +7787,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -8068,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8402,7 +8405,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -9226,7 +9229,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9307,7 +9310,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
         <v>1.63</v>
@@ -9510,7 +9513,7 @@
         <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -9638,7 +9641,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9719,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR43">
         <v>2.04</v>
@@ -9922,7 +9925,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10050,7 +10053,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10256,7 +10259,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10334,7 +10337,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46">
         <v>0.25</v>
@@ -10668,7 +10671,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10874,7 +10877,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -11080,7 +11083,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11286,7 +11289,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11492,7 +11495,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -11570,7 +11573,7 @@
         <v>0.6</v>
       </c>
       <c r="AP52">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11779,7 +11782,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ53">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -12110,7 +12113,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12188,7 +12191,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ55">
         <v>1.25</v>
@@ -12522,7 +12525,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12603,7 +12606,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR57">
         <v>1.95</v>
@@ -12809,7 +12812,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR58">
         <v>1.65</v>
@@ -12934,7 +12937,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13140,7 +13143,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>2.61</v>
@@ -13218,7 +13221,7 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13346,7 +13349,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q61">
         <v>3.05</v>
@@ -13758,7 +13761,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>3.28</v>
@@ -13839,7 +13842,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR63">
         <v>1.53</v>
@@ -13964,7 +13967,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14170,7 +14173,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>2.04</v>
@@ -14582,7 +14585,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>2.45</v>
@@ -14788,7 +14791,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -14994,7 +14997,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>2.04</v>
@@ -15072,7 +15075,7 @@
         <v>1.29</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15278,7 +15281,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ70">
         <v>0.88</v>
@@ -15487,7 +15490,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR71">
         <v>1.84</v>
@@ -15612,7 +15615,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q72">
         <v>3.26</v>
@@ -15690,10 +15693,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR72">
         <v>2.13</v>
@@ -15818,7 +15821,7 @@
         <v>97</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q73">
         <v>4.6</v>
@@ -16308,10 +16311,10 @@
         <v>1.71</v>
       </c>
       <c r="AP75">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR75">
         <v>1.88</v>
@@ -16436,7 +16439,7 @@
         <v>82</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>3.65</v>
@@ -16642,7 +16645,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -16848,7 +16851,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q78">
         <v>1.89</v>
@@ -17466,7 +17469,7 @@
         <v>85</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q81">
         <v>5.25</v>
@@ -17623,6 +17626,418 @@
       </c>
       <c r="BP81">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7775735</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45796.65625</v>
+      </c>
+      <c r="F82">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s">
+        <v>71</v>
+      </c>
+      <c r="H82" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>82</v>
+      </c>
+      <c r="P82" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q82">
+        <v>2.5</v>
+      </c>
+      <c r="R82">
+        <v>2.05</v>
+      </c>
+      <c r="S82">
+        <v>4.75</v>
+      </c>
+      <c r="T82">
+        <v>1.5</v>
+      </c>
+      <c r="U82">
+        <v>2.45</v>
+      </c>
+      <c r="V82">
+        <v>3.2</v>
+      </c>
+      <c r="W82">
+        <v>1.3</v>
+      </c>
+      <c r="X82">
+        <v>8.75</v>
+      </c>
+      <c r="Y82">
+        <v>1.06</v>
+      </c>
+      <c r="Z82">
+        <v>1.85</v>
+      </c>
+      <c r="AA82">
+        <v>3.28</v>
+      </c>
+      <c r="AB82">
+        <v>3.91</v>
+      </c>
+      <c r="AC82">
+        <v>1.07</v>
+      </c>
+      <c r="AD82">
+        <v>7</v>
+      </c>
+      <c r="AE82">
+        <v>1.4</v>
+      </c>
+      <c r="AF82">
+        <v>2.7</v>
+      </c>
+      <c r="AG82">
+        <v>2.25</v>
+      </c>
+      <c r="AH82">
+        <v>1.53</v>
+      </c>
+      <c r="AI82">
+        <v>2.05</v>
+      </c>
+      <c r="AJ82">
+        <v>1.73</v>
+      </c>
+      <c r="AK82">
+        <v>1.3</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.88</v>
+      </c>
+      <c r="AN82">
+        <v>1.5</v>
+      </c>
+      <c r="AO82">
+        <v>1.5</v>
+      </c>
+      <c r="AP82">
+        <v>1.44</v>
+      </c>
+      <c r="AQ82">
+        <v>1.44</v>
+      </c>
+      <c r="AR82">
+        <v>2.02</v>
+      </c>
+      <c r="AS82">
+        <v>1.39</v>
+      </c>
+      <c r="AT82">
+        <v>3.41</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>13</v>
+      </c>
+      <c r="AX82">
+        <v>7</v>
+      </c>
+      <c r="AY82">
+        <v>18</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>1.44</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>3.6</v>
+      </c>
+      <c r="BG82">
+        <v>1.36</v>
+      </c>
+      <c r="BH82">
+        <v>2.9</v>
+      </c>
+      <c r="BI82">
+        <v>1.55</v>
+      </c>
+      <c r="BJ82">
+        <v>2.3</v>
+      </c>
+      <c r="BK82">
+        <v>2.31</v>
+      </c>
+      <c r="BL82">
+        <v>1.77</v>
+      </c>
+      <c r="BM82">
+        <v>2.5</v>
+      </c>
+      <c r="BN82">
+        <v>1.48</v>
+      </c>
+      <c r="BO82">
+        <v>3.3</v>
+      </c>
+      <c r="BP82">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7775736</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45796.66666666666</v>
+      </c>
+      <c r="F83">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>141</v>
+      </c>
+      <c r="P83" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q83">
+        <v>2.51</v>
+      </c>
+      <c r="R83">
+        <v>1.96</v>
+      </c>
+      <c r="S83">
+        <v>4.75</v>
+      </c>
+      <c r="T83">
+        <v>1.44</v>
+      </c>
+      <c r="U83">
+        <v>2.55</v>
+      </c>
+      <c r="V83">
+        <v>3.1</v>
+      </c>
+      <c r="W83">
+        <v>1.32</v>
+      </c>
+      <c r="X83">
+        <v>9</v>
+      </c>
+      <c r="Y83">
+        <v>1.05</v>
+      </c>
+      <c r="Z83">
+        <v>1.85</v>
+      </c>
+      <c r="AA83">
+        <v>3.32</v>
+      </c>
+      <c r="AB83">
+        <v>3.86</v>
+      </c>
+      <c r="AC83">
+        <v>1.05</v>
+      </c>
+      <c r="AD83">
+        <v>8</v>
+      </c>
+      <c r="AE83">
+        <v>1.32</v>
+      </c>
+      <c r="AF83">
+        <v>3.1</v>
+      </c>
+      <c r="AG83">
+        <v>2.1</v>
+      </c>
+      <c r="AH83">
+        <v>1.61</v>
+      </c>
+      <c r="AI83">
+        <v>1.91</v>
+      </c>
+      <c r="AJ83">
+        <v>1.83</v>
+      </c>
+      <c r="AK83">
+        <v>1.23</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>2.03</v>
+      </c>
+      <c r="AN83">
+        <v>2.13</v>
+      </c>
+      <c r="AO83">
+        <v>0.88</v>
+      </c>
+      <c r="AP83">
+        <v>2.22</v>
+      </c>
+      <c r="AQ83">
+        <v>0.78</v>
+      </c>
+      <c r="AR83">
+        <v>1.87</v>
+      </c>
+      <c r="AS83">
+        <v>1.45</v>
+      </c>
+      <c r="AT83">
+        <v>3.32</v>
+      </c>
+      <c r="AU83">
+        <v>10</v>
+      </c>
+      <c r="AV83">
+        <v>8</v>
+      </c>
+      <c r="AW83">
+        <v>9</v>
+      </c>
+      <c r="AX83">
+        <v>11</v>
+      </c>
+      <c r="AY83">
+        <v>19</v>
+      </c>
+      <c r="AZ83">
+        <v>19</v>
+      </c>
+      <c r="BA83">
+        <v>7</v>
+      </c>
+      <c r="BB83">
+        <v>11</v>
+      </c>
+      <c r="BC83">
+        <v>18</v>
+      </c>
+      <c r="BD83">
+        <v>1.6</v>
+      </c>
+      <c r="BE83">
+        <v>7</v>
+      </c>
+      <c r="BF83">
+        <v>3</v>
+      </c>
+      <c r="BG83">
+        <v>1.35</v>
+      </c>
+      <c r="BH83">
+        <v>2.95</v>
+      </c>
+      <c r="BI83">
+        <v>1.57</v>
+      </c>
+      <c r="BJ83">
+        <v>2.25</v>
+      </c>
+      <c r="BK83">
+        <v>1.91</v>
+      </c>
+      <c r="BL83">
+        <v>1.8</v>
+      </c>
+      <c r="BM83">
+        <v>2.38</v>
+      </c>
+      <c r="BN83">
+        <v>1.47</v>
+      </c>
+      <c r="BO83">
+        <v>3.6</v>
+      </c>
+      <c r="BP83">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,21 @@
     <t>['22', '36', '50', '69']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['48', '84']</t>
+  </si>
+  <si>
+    <t>['34', '40', '57']</t>
+  </si>
+  <si>
+    <t>['28', '33']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['45+1', '81']</t>
   </si>
   <si>
@@ -575,6 +590,15 @@
   </si>
   <si>
     <t>['25', '76', '90+3']</t>
+  </si>
+  <si>
+    <t>['3', '59']</t>
+  </si>
+  <si>
+    <t>['2', '80']</t>
+  </si>
+  <si>
+    <t>['70', '89']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1219,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1479,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
         <v>1.38</v>
@@ -1685,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ4">
         <v>1.44</v>
@@ -1813,7 +1837,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1894,7 +1918,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2100,7 +2124,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2303,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2509,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ8">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2637,7 +2661,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2715,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9">
         <v>0.78</v>
@@ -3049,7 +3073,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3127,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR11">
         <v>2.05</v>
@@ -3255,7 +3279,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3333,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>1.77</v>
@@ -3461,7 +3485,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3539,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -3667,7 +3691,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3748,7 +3772,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>1.46</v>
@@ -3873,7 +3897,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -3951,10 +3975,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>1.43</v>
@@ -4079,7 +4103,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4285,7 +4309,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4363,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4491,7 +4515,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4572,7 +4596,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>2.63</v>
@@ -4775,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ19">
         <v>1.38</v>
@@ -4903,7 +4927,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -4984,7 +5008,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR20">
         <v>0.9</v>
@@ -5109,7 +5133,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5190,7 +5214,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5521,7 +5545,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5599,7 +5623,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -5808,7 +5832,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR24">
         <v>1.36</v>
@@ -5933,7 +5957,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -6011,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ25">
         <v>1.25</v>
@@ -6139,7 +6163,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6217,10 +6241,10 @@
         <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
         <v>1.55</v>
@@ -6423,10 +6447,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -6551,7 +6575,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6629,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR28">
         <v>1.81</v>
@@ -6835,10 +6859,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.92</v>
@@ -6963,7 +6987,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7169,7 +7193,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7375,7 +7399,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7787,7 +7811,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -8277,7 +8301,7 @@
         <v>2.33</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8405,7 +8429,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8486,7 +8510,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR37">
         <v>1.78</v>
@@ -8689,10 +8713,10 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ38">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR38">
         <v>1.99</v>
@@ -8895,10 +8919,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -9101,10 +9125,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.69</v>
@@ -9229,7 +9253,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9513,10 +9537,10 @@
         <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.9</v>
@@ -9641,7 +9665,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9719,7 +9743,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43">
         <v>1.44</v>
@@ -9928,7 +9952,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR44">
         <v>1.38</v>
@@ -10053,7 +10077,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10259,7 +10283,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10340,7 +10364,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ46">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR46">
         <v>1.69</v>
@@ -10546,7 +10570,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR47">
         <v>1.97</v>
@@ -10671,7 +10695,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10749,7 +10773,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ48">
         <v>1.25</v>
@@ -10877,7 +10901,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -10955,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49">
         <v>1.38</v>
@@ -11083,7 +11107,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11161,10 +11185,10 @@
         <v>1.4</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11289,7 +11313,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11370,7 +11394,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.67</v>
@@ -11495,7 +11519,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -11576,7 +11600,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.89</v>
@@ -11779,7 +11803,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ53">
         <v>0.78</v>
@@ -11988,7 +12012,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12113,7 +12137,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12191,7 +12215,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ55">
         <v>1.25</v>
@@ -12397,10 +12421,10 @@
         <v>0.8</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ56">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR56">
         <v>1.88</v>
@@ -12525,7 +12549,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12809,7 +12833,7 @@
         <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
         <v>1.44</v>
@@ -12937,7 +12961,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13143,7 +13167,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>2.61</v>
@@ -13349,7 +13373,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q61">
         <v>3.05</v>
@@ -13430,7 +13454,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ61">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13633,7 +13657,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -13761,7 +13785,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>3.28</v>
@@ -13967,7 +13991,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14048,7 +14072,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR64">
         <v>1.6</v>
@@ -14173,7 +14197,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>2.04</v>
@@ -14254,7 +14278,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR65">
         <v>1.97</v>
@@ -14457,7 +14481,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ66">
         <v>1.25</v>
@@ -14585,7 +14609,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>2.45</v>
@@ -14663,10 +14687,10 @@
         <v>0.33</v>
       </c>
       <c r="AP67">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ67">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -14791,7 +14815,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -14869,10 +14893,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.65</v>
@@ -14997,7 +15021,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>2.04</v>
@@ -15075,10 +15099,10 @@
         <v>1.29</v>
       </c>
       <c r="AP69">
+        <v>1.6</v>
+      </c>
+      <c r="AQ69">
         <v>1.44</v>
-      </c>
-      <c r="AQ69">
-        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>2.05</v>
@@ -15284,7 +15308,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ70">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR70">
         <v>1.78</v>
@@ -15487,7 +15511,7 @@
         <v>1.17</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ71">
         <v>0.78</v>
@@ -15615,7 +15639,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>3.26</v>
@@ -15693,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ72">
         <v>0.78</v>
@@ -15821,7 +15845,7 @@
         <v>97</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>4.6</v>
@@ -16439,7 +16463,7 @@
         <v>82</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>3.65</v>
@@ -16520,7 +16544,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.54</v>
@@ -16645,7 +16669,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -16723,10 +16747,10 @@
         <v>0.57</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ77">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR77">
         <v>1.74</v>
@@ -16851,7 +16875,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>1.89</v>
@@ -16929,10 +16953,10 @@
         <v>0.29</v>
       </c>
       <c r="AP78">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR78">
         <v>1.69</v>
@@ -17341,7 +17365,7 @@
         <v>1.43</v>
       </c>
       <c r="AP80">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ80">
         <v>1.38</v>
@@ -17469,7 +17493,7 @@
         <v>85</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>5.25</v>
@@ -17550,7 +17574,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR81">
         <v>1.57</v>
@@ -17753,7 +17777,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ82">
         <v>1.44</v>
@@ -18038,6 +18062,1036 @@
       </c>
       <c r="BP83">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7775697</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45800.65625</v>
+      </c>
+      <c r="F84">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>142</v>
+      </c>
+      <c r="P84" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q84">
+        <v>3.3</v>
+      </c>
+      <c r="R84">
+        <v>2.04</v>
+      </c>
+      <c r="S84">
+        <v>3.1</v>
+      </c>
+      <c r="T84">
+        <v>1.4</v>
+      </c>
+      <c r="U84">
+        <v>2.7</v>
+      </c>
+      <c r="V84">
+        <v>2.98</v>
+      </c>
+      <c r="W84">
+        <v>1.32</v>
+      </c>
+      <c r="X84">
+        <v>7</v>
+      </c>
+      <c r="Y84">
+        <v>1.03</v>
+      </c>
+      <c r="Z84">
+        <v>2.87</v>
+      </c>
+      <c r="AA84">
+        <v>3.18</v>
+      </c>
+      <c r="AB84">
+        <v>2.55</v>
+      </c>
+      <c r="AC84">
+        <v>1.07</v>
+      </c>
+      <c r="AD84">
+        <v>8</v>
+      </c>
+      <c r="AE84">
+        <v>1.36</v>
+      </c>
+      <c r="AF84">
+        <v>3</v>
+      </c>
+      <c r="AG84">
+        <v>2.15</v>
+      </c>
+      <c r="AH84">
+        <v>1.74</v>
+      </c>
+      <c r="AI84">
+        <v>1.81</v>
+      </c>
+      <c r="AJ84">
+        <v>1.86</v>
+      </c>
+      <c r="AK84">
+        <v>1.36</v>
+      </c>
+      <c r="AL84">
+        <v>1.32</v>
+      </c>
+      <c r="AM84">
+        <v>1.35</v>
+      </c>
+      <c r="AN84">
+        <v>1.63</v>
+      </c>
+      <c r="AO84">
+        <v>1.5</v>
+      </c>
+      <c r="AP84">
+        <v>1.78</v>
+      </c>
+      <c r="AQ84">
+        <v>1.33</v>
+      </c>
+      <c r="AR84">
+        <v>1.45</v>
+      </c>
+      <c r="AS84">
+        <v>1.53</v>
+      </c>
+      <c r="AT84">
+        <v>2.98</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>10</v>
+      </c>
+      <c r="AY84">
+        <v>10</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>5</v>
+      </c>
+      <c r="BB84">
+        <v>9</v>
+      </c>
+      <c r="BC84">
+        <v>14</v>
+      </c>
+      <c r="BD84">
+        <v>2.66</v>
+      </c>
+      <c r="BE84">
+        <v>7.5</v>
+      </c>
+      <c r="BF84">
+        <v>1.74</v>
+      </c>
+      <c r="BG84">
+        <v>1.29</v>
+      </c>
+      <c r="BH84">
+        <v>3.3</v>
+      </c>
+      <c r="BI84">
+        <v>1.47</v>
+      </c>
+      <c r="BJ84">
+        <v>2.5</v>
+      </c>
+      <c r="BK84">
+        <v>1.77</v>
+      </c>
+      <c r="BL84">
+        <v>1.91</v>
+      </c>
+      <c r="BM84">
+        <v>2.25</v>
+      </c>
+      <c r="BN84">
+        <v>1.57</v>
+      </c>
+      <c r="BO84">
+        <v>2.88</v>
+      </c>
+      <c r="BP84">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7775698</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45800.65625</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>143</v>
+      </c>
+      <c r="P85" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q85">
+        <v>2.2</v>
+      </c>
+      <c r="R85">
+        <v>2.17</v>
+      </c>
+      <c r="S85">
+        <v>4.9</v>
+      </c>
+      <c r="T85">
+        <v>1.41</v>
+      </c>
+      <c r="U85">
+        <v>2.75</v>
+      </c>
+      <c r="V85">
+        <v>2.9</v>
+      </c>
+      <c r="W85">
+        <v>1.35</v>
+      </c>
+      <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>1.05</v>
+      </c>
+      <c r="Z85">
+        <v>1.63</v>
+      </c>
+      <c r="AA85">
+        <v>3.65</v>
+      </c>
+      <c r="AB85">
+        <v>5.5</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>9</v>
+      </c>
+      <c r="AE85">
+        <v>1.28</v>
+      </c>
+      <c r="AF85">
+        <v>3.1</v>
+      </c>
+      <c r="AG85">
+        <v>1.98</v>
+      </c>
+      <c r="AH85">
+        <v>1.73</v>
+      </c>
+      <c r="AI85">
+        <v>1.9</v>
+      </c>
+      <c r="AJ85">
+        <v>1.73</v>
+      </c>
+      <c r="AK85">
+        <v>1.25</v>
+      </c>
+      <c r="AL85">
+        <v>1.22</v>
+      </c>
+      <c r="AM85">
+        <v>2.3</v>
+      </c>
+      <c r="AN85">
+        <v>1.25</v>
+      </c>
+      <c r="AO85">
+        <v>0.25</v>
+      </c>
+      <c r="AP85">
+        <v>1.44</v>
+      </c>
+      <c r="AQ85">
+        <v>0.22</v>
+      </c>
+      <c r="AR85">
+        <v>1.76</v>
+      </c>
+      <c r="AS85">
+        <v>1.1</v>
+      </c>
+      <c r="AT85">
+        <v>2.86</v>
+      </c>
+      <c r="AU85">
+        <v>5</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>10</v>
+      </c>
+      <c r="AX85">
+        <v>7</v>
+      </c>
+      <c r="AY85">
+        <v>15</v>
+      </c>
+      <c r="AZ85">
+        <v>10</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>5</v>
+      </c>
+      <c r="BD85">
+        <v>1.55</v>
+      </c>
+      <c r="BE85">
+        <v>7.5</v>
+      </c>
+      <c r="BF85">
+        <v>3</v>
+      </c>
+      <c r="BG85">
+        <v>1.2</v>
+      </c>
+      <c r="BH85">
+        <v>4</v>
+      </c>
+      <c r="BI85">
+        <v>1.33</v>
+      </c>
+      <c r="BJ85">
+        <v>3</v>
+      </c>
+      <c r="BK85">
+        <v>1.62</v>
+      </c>
+      <c r="BL85">
+        <v>2.25</v>
+      </c>
+      <c r="BM85">
+        <v>1.91</v>
+      </c>
+      <c r="BN85">
+        <v>1.8</v>
+      </c>
+      <c r="BO85">
+        <v>2.4</v>
+      </c>
+      <c r="BP85">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7775699</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45800.65625</v>
+      </c>
+      <c r="F86">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86" t="s">
+        <v>144</v>
+      </c>
+      <c r="P86" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q86">
+        <v>2.11</v>
+      </c>
+      <c r="R86">
+        <v>2.26</v>
+      </c>
+      <c r="S86">
+        <v>5.25</v>
+      </c>
+      <c r="T86">
+        <v>1.32</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>2.6</v>
+      </c>
+      <c r="W86">
+        <v>1.42</v>
+      </c>
+      <c r="X86">
+        <v>5.8</v>
+      </c>
+      <c r="Y86">
+        <v>1.09</v>
+      </c>
+      <c r="Z86">
+        <v>1.58</v>
+      </c>
+      <c r="AA86">
+        <v>4.12</v>
+      </c>
+      <c r="AB86">
+        <v>5.72</v>
+      </c>
+      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>10.5</v>
+      </c>
+      <c r="AE86">
+        <v>1.25</v>
+      </c>
+      <c r="AF86">
+        <v>3.75</v>
+      </c>
+      <c r="AG86">
+        <v>1.85</v>
+      </c>
+      <c r="AH86">
+        <v>2.03</v>
+      </c>
+      <c r="AI86">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86">
+        <v>1.85</v>
+      </c>
+      <c r="AK86">
+        <v>1.25</v>
+      </c>
+      <c r="AL86">
+        <v>1.24</v>
+      </c>
+      <c r="AM86">
+        <v>2.38</v>
+      </c>
+      <c r="AN86">
+        <v>1.44</v>
+      </c>
+      <c r="AO86">
+        <v>0.88</v>
+      </c>
+      <c r="AP86">
+        <v>1.6</v>
+      </c>
+      <c r="AQ86">
+        <v>0.78</v>
+      </c>
+      <c r="AR86">
+        <v>2.01</v>
+      </c>
+      <c r="AS86">
+        <v>1.26</v>
+      </c>
+      <c r="AT86">
+        <v>3.27</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>6</v>
+      </c>
+      <c r="AW86">
+        <v>23</v>
+      </c>
+      <c r="AX86">
+        <v>7</v>
+      </c>
+      <c r="AY86">
+        <v>30</v>
+      </c>
+      <c r="AZ86">
+        <v>13</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>9</v>
+      </c>
+      <c r="BC86">
+        <v>17</v>
+      </c>
+      <c r="BD86">
+        <v>1.36</v>
+      </c>
+      <c r="BE86">
+        <v>9</v>
+      </c>
+      <c r="BF86">
+        <v>5.25</v>
+      </c>
+      <c r="BG86">
+        <v>1.29</v>
+      </c>
+      <c r="BH86">
+        <v>3.3</v>
+      </c>
+      <c r="BI86">
+        <v>1.5</v>
+      </c>
+      <c r="BJ86">
+        <v>2.4</v>
+      </c>
+      <c r="BK86">
+        <v>1.75</v>
+      </c>
+      <c r="BL86">
+        <v>1.95</v>
+      </c>
+      <c r="BM86">
+        <v>2.25</v>
+      </c>
+      <c r="BN86">
+        <v>1.57</v>
+      </c>
+      <c r="BO86">
+        <v>2.8</v>
+      </c>
+      <c r="BP86">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7775700</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45800.65625</v>
+      </c>
+      <c r="F87">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" t="s">
+        <v>78</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>145</v>
+      </c>
+      <c r="P87" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q87">
+        <v>2.04</v>
+      </c>
+      <c r="R87">
+        <v>2.5</v>
+      </c>
+      <c r="S87">
+        <v>5.5</v>
+      </c>
+      <c r="T87">
+        <v>1.28</v>
+      </c>
+      <c r="U87">
+        <v>3.3</v>
+      </c>
+      <c r="V87">
+        <v>2.42</v>
+      </c>
+      <c r="W87">
+        <v>1.56</v>
+      </c>
+      <c r="X87">
+        <v>5.3</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>1.52</v>
+      </c>
+      <c r="AA87">
+        <v>4</v>
+      </c>
+      <c r="AB87">
+        <v>5.5</v>
+      </c>
+      <c r="AC87">
+        <v>1</v>
+      </c>
+      <c r="AD87">
+        <v>12</v>
+      </c>
+      <c r="AE87">
+        <v>1.18</v>
+      </c>
+      <c r="AF87">
+        <v>4.33</v>
+      </c>
+      <c r="AG87">
+        <v>1.61</v>
+      </c>
+      <c r="AH87">
+        <v>2.25</v>
+      </c>
+      <c r="AI87">
+        <v>1.7</v>
+      </c>
+      <c r="AJ87">
+        <v>2.1</v>
+      </c>
+      <c r="AK87">
+        <v>1.22</v>
+      </c>
+      <c r="AL87">
+        <v>1.21</v>
+      </c>
+      <c r="AM87">
+        <v>2.5</v>
+      </c>
+      <c r="AN87">
+        <v>2.25</v>
+      </c>
+      <c r="AO87">
+        <v>1.5</v>
+      </c>
+      <c r="AP87">
+        <v>2.11</v>
+      </c>
+      <c r="AQ87">
+        <v>1.44</v>
+      </c>
+      <c r="AR87">
+        <v>1.69</v>
+      </c>
+      <c r="AS87">
+        <v>0.95</v>
+      </c>
+      <c r="AT87">
+        <v>2.64</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
+        <v>6</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>13</v>
+      </c>
+      <c r="AY87">
+        <v>10</v>
+      </c>
+      <c r="AZ87">
+        <v>19</v>
+      </c>
+      <c r="BA87">
+        <v>1</v>
+      </c>
+      <c r="BB87">
+        <v>11</v>
+      </c>
+      <c r="BC87">
+        <v>12</v>
+      </c>
+      <c r="BD87">
+        <v>1.22</v>
+      </c>
+      <c r="BE87">
+        <v>9.9</v>
+      </c>
+      <c r="BF87">
+        <v>5.5</v>
+      </c>
+      <c r="BG87">
+        <v>1.15</v>
+      </c>
+      <c r="BH87">
+        <v>4</v>
+      </c>
+      <c r="BI87">
+        <v>1.36</v>
+      </c>
+      <c r="BJ87">
+        <v>2.9</v>
+      </c>
+      <c r="BK87">
+        <v>1.61</v>
+      </c>
+      <c r="BL87">
+        <v>2.24</v>
+      </c>
+      <c r="BM87">
+        <v>1.96</v>
+      </c>
+      <c r="BN87">
+        <v>1.75</v>
+      </c>
+      <c r="BO87">
+        <v>2.5</v>
+      </c>
+      <c r="BP87">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7775696</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45800.65625</v>
+      </c>
+      <c r="F88">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>146</v>
+      </c>
+      <c r="P88" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q88">
+        <v>3.75</v>
+      </c>
+      <c r="R88">
+        <v>1.91</v>
+      </c>
+      <c r="S88">
+        <v>2.99</v>
+      </c>
+      <c r="T88">
+        <v>1.55</v>
+      </c>
+      <c r="U88">
+        <v>2.29</v>
+      </c>
+      <c r="V88">
+        <v>3.55</v>
+      </c>
+      <c r="W88">
+        <v>1.25</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.03</v>
+      </c>
+      <c r="Z88">
+        <v>3.09</v>
+      </c>
+      <c r="AA88">
+        <v>3</v>
+      </c>
+      <c r="AB88">
+        <v>2.51</v>
+      </c>
+      <c r="AC88">
+        <v>1.11</v>
+      </c>
+      <c r="AD88">
+        <v>6.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.51</v>
+      </c>
+      <c r="AF88">
+        <v>2.5</v>
+      </c>
+      <c r="AG88">
+        <v>2.5</v>
+      </c>
+      <c r="AH88">
+        <v>1.53</v>
+      </c>
+      <c r="AI88">
+        <v>2.06</v>
+      </c>
+      <c r="AJ88">
+        <v>1.75</v>
+      </c>
+      <c r="AK88">
+        <v>1.4</v>
+      </c>
+      <c r="AL88">
+        <v>1.35</v>
+      </c>
+      <c r="AM88">
+        <v>1.36</v>
+      </c>
+      <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>1.5</v>
+      </c>
+      <c r="AP88">
+        <v>1.78</v>
+      </c>
+      <c r="AQ88">
+        <v>1.67</v>
+      </c>
+      <c r="AR88">
+        <v>1.76</v>
+      </c>
+      <c r="AS88">
+        <v>1.66</v>
+      </c>
+      <c r="AT88">
+        <v>3.42</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>7</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>12</v>
+      </c>
+      <c r="AZ88">
+        <v>12</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>2</v>
+      </c>
+      <c r="BC88">
+        <v>9</v>
+      </c>
+      <c r="BD88">
+        <v>1.69</v>
+      </c>
+      <c r="BE88">
+        <v>6.5</v>
+      </c>
+      <c r="BF88">
+        <v>2.2</v>
+      </c>
+      <c r="BG88">
+        <v>1.41</v>
+      </c>
+      <c r="BH88">
+        <v>2.9</v>
+      </c>
+      <c r="BI88">
+        <v>1.71</v>
+      </c>
+      <c r="BJ88">
+        <v>2.05</v>
+      </c>
+      <c r="BK88">
+        <v>2.1</v>
+      </c>
+      <c r="BL88">
+        <v>1.65</v>
+      </c>
+      <c r="BM88">
+        <v>2.5</v>
+      </c>
+      <c r="BN88">
+        <v>1.48</v>
+      </c>
+      <c r="BO88">
+        <v>3.3</v>
+      </c>
+      <c r="BP88">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,12 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['19', '81']</t>
+  </si>
+  <si>
     <t>['45+1', '81']</t>
   </si>
   <si>
@@ -599,6 +605,12 @@
   </si>
   <si>
     <t>['70', '89']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['23', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1231,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>4.4</v>
@@ -1297,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1506,7 +1518,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1712,7 +1724,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ4">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1837,7 +1849,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1915,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ5">
         <v>1.44</v>
@@ -2121,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.67</v>
@@ -2661,7 +2673,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2742,7 +2754,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ9">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2945,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3073,7 +3085,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>1.94</v>
@@ -3279,7 +3291,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>3.95</v>
@@ -3485,7 +3497,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>4.5</v>
@@ -3566,7 +3578,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
         <v>1.54</v>
@@ -3691,7 +3703,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>3.9</v>
@@ -3769,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3897,7 +3909,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>2.06</v>
@@ -4103,7 +4115,7 @@
         <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4181,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>0.9399999999999999</v>
@@ -4309,7 +4321,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>3.1</v>
@@ -4390,7 +4402,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR17">
         <v>1.58</v>
@@ -4515,7 +4527,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>4.2</v>
@@ -4593,7 +4605,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ18">
         <v>1.67</v>
@@ -4802,7 +4814,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR19">
         <v>2.01</v>
@@ -4927,7 +4939,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.65</v>
@@ -5005,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ20">
         <v>0.22</v>
@@ -5133,7 +5145,7 @@
         <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>3.5</v>
@@ -5211,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5417,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ22">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5545,7 +5557,7 @@
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5626,7 +5638,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.82</v>
@@ -5829,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ24">
         <v>0.78</v>
@@ -5957,7 +5969,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.7</v>
@@ -6038,7 +6050,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR25">
         <v>1.72</v>
@@ -6163,7 +6175,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>4.75</v>
@@ -6575,7 +6587,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.3</v>
@@ -6987,7 +6999,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>4.5</v>
@@ -7065,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ30">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR30">
         <v>1.87</v>
@@ -7193,7 +7205,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7271,10 +7283,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ31">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.77</v>
@@ -7399,7 +7411,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7477,10 +7489,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR32">
         <v>1.2</v>
@@ -7683,10 +7695,10 @@
         <v>2.33</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ33">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR33">
         <v>1.68</v>
@@ -7811,7 +7823,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>4.33</v>
@@ -7889,10 +7901,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR34">
         <v>1.64</v>
@@ -8095,10 +8107,10 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR35">
         <v>1.34</v>
@@ -8304,7 +8316,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>1.81</v>
@@ -8429,7 +8441,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8507,7 +8519,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0.78</v>
@@ -9253,7 +9265,7 @@
         <v>82</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>5.2</v>
@@ -9331,10 +9343,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ41">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.63</v>
@@ -9665,7 +9677,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>2.38</v>
@@ -9746,7 +9758,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>2.04</v>
@@ -9949,7 +9961,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ44">
         <v>1.44</v>
@@ -10077,7 +10089,7 @@
         <v>111</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>4.04</v>
@@ -10155,10 +10167,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR45">
         <v>1.63</v>
@@ -10283,7 +10295,7 @@
         <v>112</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>1.7</v>
@@ -10361,7 +10373,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ46">
         <v>0.22</v>
@@ -10567,7 +10579,7 @@
         <v>0.25</v>
       </c>
       <c r="AP47">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.22</v>
@@ -10695,7 +10707,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>3.88</v>
@@ -10776,7 +10788,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR48">
         <v>1.51</v>
@@ -10901,7 +10913,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3.55</v>
@@ -10982,7 +10994,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR49">
         <v>1.6</v>
@@ -11107,7 +11119,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>3.7</v>
@@ -11313,7 +11325,7 @@
         <v>82</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>2.6</v>
@@ -11391,7 +11403,7 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ51">
         <v>0.78</v>
@@ -11519,7 +11531,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>2.24</v>
@@ -11597,7 +11609,7 @@
         <v>0.6</v>
       </c>
       <c r="AP52">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -11806,7 +11818,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ53">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.38</v>
@@ -12009,7 +12021,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ54">
         <v>1.44</v>
@@ -12137,7 +12149,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.6</v>
@@ -12218,7 +12230,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR55">
         <v>1.84</v>
@@ -12549,7 +12561,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>3.5</v>
@@ -12627,10 +12639,10 @@
         <v>1.4</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.95</v>
@@ -12836,7 +12848,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ58">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
         <v>1.65</v>
@@ -12961,7 +12973,7 @@
         <v>123</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>4.75</v>
@@ -13039,10 +13051,10 @@
         <v>1.4</v>
       </c>
       <c r="AP59">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR59">
         <v>1.59</v>
@@ -13167,7 +13179,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>2.61</v>
@@ -13245,10 +13257,10 @@
         <v>1.8</v>
       </c>
       <c r="AP60">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR60">
         <v>1.76</v>
@@ -13373,7 +13385,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q61">
         <v>3.05</v>
@@ -13451,7 +13463,7 @@
         <v>0.2</v>
       </c>
       <c r="AP61">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ61">
         <v>0.22</v>
@@ -13660,7 +13672,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>1.73</v>
@@ -13785,7 +13797,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>3.28</v>
@@ -13863,10 +13875,10 @@
         <v>1.83</v>
       </c>
       <c r="AP63">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ63">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.53</v>
@@ -13991,7 +14003,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14069,7 +14081,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64">
         <v>1.67</v>
@@ -14197,7 +14209,7 @@
         <v>129</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.04</v>
@@ -14275,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1.44</v>
@@ -14484,7 +14496,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR66">
         <v>1.92</v>
@@ -14609,7 +14621,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>2.45</v>
@@ -14815,7 +14827,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>3.2</v>
@@ -15021,7 +15033,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.04</v>
@@ -15305,7 +15317,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ70">
         <v>0.78</v>
@@ -15514,7 +15526,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ71">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.84</v>
@@ -15639,7 +15651,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>3.26</v>
@@ -15720,7 +15732,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ72">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>2.13</v>
@@ -15845,7 +15857,7 @@
         <v>97</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>4.6</v>
@@ -15923,10 +15935,10 @@
         <v>1.17</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR73">
         <v>1.54</v>
@@ -16129,10 +16141,10 @@
         <v>1.43</v>
       </c>
       <c r="AP74">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR74">
         <v>1.51</v>
@@ -16335,10 +16347,10 @@
         <v>1.71</v>
       </c>
       <c r="AP75">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ75">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR75">
         <v>1.88</v>
@@ -16463,7 +16475,7 @@
         <v>82</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>3.65</v>
@@ -16541,7 +16553,7 @@
         <v>1.29</v>
       </c>
       <c r="AP76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -16669,7 +16681,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -16875,7 +16887,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>1.89</v>
@@ -17159,10 +17171,10 @@
         <v>1.43</v>
       </c>
       <c r="AP79">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR79">
         <v>1.98</v>
@@ -17368,7 +17380,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR80">
         <v>1.49</v>
@@ -17493,7 +17505,7 @@
         <v>85</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>5.25</v>
@@ -17571,7 +17583,7 @@
         <v>1.29</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ81">
         <v>1.67</v>
@@ -17780,7 +17792,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ82">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>2.02</v>
@@ -17983,10 +17995,10 @@
         <v>0.88</v>
       </c>
       <c r="AP83">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ83">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.87</v>
@@ -18317,7 +18329,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q85">
         <v>2.2</v>
@@ -18523,7 +18535,7 @@
         <v>144</v>
       </c>
       <c r="P86" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q86">
         <v>2.11</v>
@@ -18729,7 +18741,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q87">
         <v>2.04</v>
@@ -18935,7 +18947,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19092,6 +19104,1036 @@
       </c>
       <c r="BP88">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7775705</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45807.65625</v>
+      </c>
+      <c r="F89">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s">
+        <v>72</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>82</v>
+      </c>
+      <c r="P89" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q89">
+        <v>4.5</v>
+      </c>
+      <c r="R89">
+        <v>2.25</v>
+      </c>
+      <c r="S89">
+        <v>2.53</v>
+      </c>
+      <c r="T89">
+        <v>1.32</v>
+      </c>
+      <c r="U89">
+        <v>3.1</v>
+      </c>
+      <c r="V89">
+        <v>2.55</v>
+      </c>
+      <c r="W89">
+        <v>1.46</v>
+      </c>
+      <c r="X89">
+        <v>5.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.09</v>
+      </c>
+      <c r="Z89">
+        <v>3.78</v>
+      </c>
+      <c r="AA89">
+        <v>3.47</v>
+      </c>
+      <c r="AB89">
+        <v>1.76</v>
+      </c>
+      <c r="AC89">
+        <v>1.04</v>
+      </c>
+      <c r="AD89">
+        <v>12</v>
+      </c>
+      <c r="AE89">
+        <v>1.22</v>
+      </c>
+      <c r="AF89">
+        <v>4</v>
+      </c>
+      <c r="AG89">
+        <v>1.78</v>
+      </c>
+      <c r="AH89">
+        <v>1.92</v>
+      </c>
+      <c r="AI89">
+        <v>1.6</v>
+      </c>
+      <c r="AJ89">
+        <v>2.1</v>
+      </c>
+      <c r="AK89">
+        <v>1.3</v>
+      </c>
+      <c r="AL89">
+        <v>1.22</v>
+      </c>
+      <c r="AM89">
+        <v>1.22</v>
+      </c>
+      <c r="AN89">
+        <v>0.63</v>
+      </c>
+      <c r="AO89">
+        <v>0.78</v>
+      </c>
+      <c r="AP89">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1.48</v>
+      </c>
+      <c r="AS89">
+        <v>1.53</v>
+      </c>
+      <c r="AT89">
+        <v>3.01</v>
+      </c>
+      <c r="AU89">
+        <v>2</v>
+      </c>
+      <c r="AV89">
+        <v>5</v>
+      </c>
+      <c r="AW89">
+        <v>6</v>
+      </c>
+      <c r="AX89">
+        <v>16</v>
+      </c>
+      <c r="AY89">
+        <v>8</v>
+      </c>
+      <c r="AZ89">
+        <v>21</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>9</v>
+      </c>
+      <c r="BC89">
+        <v>15</v>
+      </c>
+      <c r="BD89">
+        <v>2.45</v>
+      </c>
+      <c r="BE89">
+        <v>6.75</v>
+      </c>
+      <c r="BF89">
+        <v>1.68</v>
+      </c>
+      <c r="BG89">
+        <v>1.23</v>
+      </c>
+      <c r="BH89">
+        <v>3.6</v>
+      </c>
+      <c r="BI89">
+        <v>1.45</v>
+      </c>
+      <c r="BJ89">
+        <v>2.62</v>
+      </c>
+      <c r="BK89">
+        <v>1.72</v>
+      </c>
+      <c r="BL89">
+        <v>2</v>
+      </c>
+      <c r="BM89">
+        <v>2.15</v>
+      </c>
+      <c r="BN89">
+        <v>1.62</v>
+      </c>
+      <c r="BO89">
+        <v>2.62</v>
+      </c>
+      <c r="BP89">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7775702</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45807.65625</v>
+      </c>
+      <c r="F90">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>147</v>
+      </c>
+      <c r="P90" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q90">
+        <v>3.81</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>2.81</v>
+      </c>
+      <c r="T90">
+        <v>1.48</v>
+      </c>
+      <c r="U90">
+        <v>2.6</v>
+      </c>
+      <c r="V90">
+        <v>3.2</v>
+      </c>
+      <c r="W90">
+        <v>1.32</v>
+      </c>
+      <c r="X90">
+        <v>7.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.05</v>
+      </c>
+      <c r="Z90">
+        <v>3.76</v>
+      </c>
+      <c r="AA90">
+        <v>3.11</v>
+      </c>
+      <c r="AB90">
+        <v>1.88</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>7.8</v>
+      </c>
+      <c r="AE90">
+        <v>1.4</v>
+      </c>
+      <c r="AF90">
+        <v>2.8</v>
+      </c>
+      <c r="AG90">
+        <v>2.2</v>
+      </c>
+      <c r="AH90">
+        <v>1.55</v>
+      </c>
+      <c r="AI90">
+        <v>1.85</v>
+      </c>
+      <c r="AJ90">
+        <v>1.83</v>
+      </c>
+      <c r="AK90">
+        <v>1.36</v>
+      </c>
+      <c r="AL90">
+        <v>1.28</v>
+      </c>
+      <c r="AM90">
+        <v>1.3</v>
+      </c>
+      <c r="AN90">
+        <v>1.25</v>
+      </c>
+      <c r="AO90">
+        <v>1.25</v>
+      </c>
+      <c r="AP90">
+        <v>1.22</v>
+      </c>
+      <c r="AQ90">
+        <v>1.22</v>
+      </c>
+      <c r="AR90">
+        <v>1.52</v>
+      </c>
+      <c r="AS90">
+        <v>1.53</v>
+      </c>
+      <c r="AT90">
+        <v>3.05</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>12</v>
+      </c>
+      <c r="AX90">
+        <v>7</v>
+      </c>
+      <c r="AY90">
+        <v>24</v>
+      </c>
+      <c r="AZ90">
+        <v>15</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>5</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>2.39</v>
+      </c>
+      <c r="BE90">
+        <v>6.4</v>
+      </c>
+      <c r="BF90">
+        <v>1.85</v>
+      </c>
+      <c r="BG90">
+        <v>1.34</v>
+      </c>
+      <c r="BH90">
+        <v>2.9</v>
+      </c>
+      <c r="BI90">
+        <v>1.55</v>
+      </c>
+      <c r="BJ90">
+        <v>2.4</v>
+      </c>
+      <c r="BK90">
+        <v>1.85</v>
+      </c>
+      <c r="BL90">
+        <v>1.85</v>
+      </c>
+      <c r="BM90">
+        <v>2.33</v>
+      </c>
+      <c r="BN90">
+        <v>1.57</v>
+      </c>
+      <c r="BO90">
+        <v>3.12</v>
+      </c>
+      <c r="BP90">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7775703</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45807.65625</v>
+      </c>
+      <c r="F91">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s">
+        <v>76</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91" t="s">
+        <v>148</v>
+      </c>
+      <c r="P91" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q91">
+        <v>3.3</v>
+      </c>
+      <c r="R91">
+        <v>2.05</v>
+      </c>
+      <c r="S91">
+        <v>3.4</v>
+      </c>
+      <c r="T91">
+        <v>1.4</v>
+      </c>
+      <c r="U91">
+        <v>2.7</v>
+      </c>
+      <c r="V91">
+        <v>2.85</v>
+      </c>
+      <c r="W91">
+        <v>1.37</v>
+      </c>
+      <c r="X91">
+        <v>6.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.07</v>
+      </c>
+      <c r="Z91">
+        <v>2.51</v>
+      </c>
+      <c r="AA91">
+        <v>3.06</v>
+      </c>
+      <c r="AB91">
+        <v>2.53</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>9</v>
+      </c>
+      <c r="AE91">
+        <v>1.33</v>
+      </c>
+      <c r="AF91">
+        <v>3.2</v>
+      </c>
+      <c r="AG91">
+        <v>1.94</v>
+      </c>
+      <c r="AH91">
+        <v>1.76</v>
+      </c>
+      <c r="AI91">
+        <v>1.8</v>
+      </c>
+      <c r="AJ91">
+        <v>1.97</v>
+      </c>
+      <c r="AK91">
+        <v>1.33</v>
+      </c>
+      <c r="AL91">
+        <v>1.3</v>
+      </c>
+      <c r="AM91">
+        <v>1.44</v>
+      </c>
+      <c r="AN91">
+        <v>1.13</v>
+      </c>
+      <c r="AO91">
+        <v>1.44</v>
+      </c>
+      <c r="AP91">
+        <v>1.11</v>
+      </c>
+      <c r="AQ91">
+        <v>1.4</v>
+      </c>
+      <c r="AR91">
+        <v>1.53</v>
+      </c>
+      <c r="AS91">
+        <v>1.39</v>
+      </c>
+      <c r="AT91">
+        <v>2.92</v>
+      </c>
+      <c r="AU91">
+        <v>7</v>
+      </c>
+      <c r="AV91">
+        <v>6</v>
+      </c>
+      <c r="AW91">
+        <v>12</v>
+      </c>
+      <c r="AX91">
+        <v>10</v>
+      </c>
+      <c r="AY91">
+        <v>19</v>
+      </c>
+      <c r="AZ91">
+        <v>16</v>
+      </c>
+      <c r="BA91">
+        <v>5</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>9</v>
+      </c>
+      <c r="BD91">
+        <v>1.95</v>
+      </c>
+      <c r="BE91">
+        <v>7.4</v>
+      </c>
+      <c r="BF91">
+        <v>2.22</v>
+      </c>
+      <c r="BG91">
+        <v>1.29</v>
+      </c>
+      <c r="BH91">
+        <v>3.3</v>
+      </c>
+      <c r="BI91">
+        <v>1.48</v>
+      </c>
+      <c r="BJ91">
+        <v>2.57</v>
+      </c>
+      <c r="BK91">
+        <v>2.01</v>
+      </c>
+      <c r="BL91">
+        <v>1.96</v>
+      </c>
+      <c r="BM91">
+        <v>2.25</v>
+      </c>
+      <c r="BN91">
+        <v>1.6</v>
+      </c>
+      <c r="BO91">
+        <v>2.88</v>
+      </c>
+      <c r="BP91">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7775701</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45807.65625</v>
+      </c>
+      <c r="F92">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>89</v>
+      </c>
+      <c r="P92" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>1.94</v>
+      </c>
+      <c r="S92">
+        <v>3.7</v>
+      </c>
+      <c r="T92">
+        <v>1.49</v>
+      </c>
+      <c r="U92">
+        <v>2.58</v>
+      </c>
+      <c r="V92">
+        <v>3.34</v>
+      </c>
+      <c r="W92">
+        <v>1.28</v>
+      </c>
+      <c r="X92">
+        <v>9</v>
+      </c>
+      <c r="Y92">
+        <v>1.03</v>
+      </c>
+      <c r="Z92">
+        <v>2.47</v>
+      </c>
+      <c r="AA92">
+        <v>3.02</v>
+      </c>
+      <c r="AB92">
+        <v>2.6</v>
+      </c>
+      <c r="AC92">
+        <v>1.1</v>
+      </c>
+      <c r="AD92">
+        <v>7</v>
+      </c>
+      <c r="AE92">
+        <v>1.4</v>
+      </c>
+      <c r="AF92">
+        <v>2.63</v>
+      </c>
+      <c r="AG92">
+        <v>2.25</v>
+      </c>
+      <c r="AH92">
+        <v>1.53</v>
+      </c>
+      <c r="AI92">
+        <v>1.93</v>
+      </c>
+      <c r="AJ92">
+        <v>1.75</v>
+      </c>
+      <c r="AK92">
+        <v>1.36</v>
+      </c>
+      <c r="AL92">
+        <v>1.3</v>
+      </c>
+      <c r="AM92">
+        <v>1.6</v>
+      </c>
+      <c r="AN92">
+        <v>1.88</v>
+      </c>
+      <c r="AO92">
+        <v>1.38</v>
+      </c>
+      <c r="AP92">
+        <v>2</v>
+      </c>
+      <c r="AQ92">
+        <v>1.22</v>
+      </c>
+      <c r="AR92">
+        <v>1.96</v>
+      </c>
+      <c r="AS92">
+        <v>1.27</v>
+      </c>
+      <c r="AT92">
+        <v>3.23</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>2</v>
+      </c>
+      <c r="AW92">
+        <v>16</v>
+      </c>
+      <c r="AX92">
+        <v>7</v>
+      </c>
+      <c r="AY92">
+        <v>27</v>
+      </c>
+      <c r="AZ92">
+        <v>12</v>
+      </c>
+      <c r="BA92">
+        <v>4</v>
+      </c>
+      <c r="BB92">
+        <v>2</v>
+      </c>
+      <c r="BC92">
+        <v>6</v>
+      </c>
+      <c r="BD92">
+        <v>1.67</v>
+      </c>
+      <c r="BE92">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF92">
+        <v>2.8</v>
+      </c>
+      <c r="BG92">
+        <v>1.38</v>
+      </c>
+      <c r="BH92">
+        <v>2.83</v>
+      </c>
+      <c r="BI92">
+        <v>1.65</v>
+      </c>
+      <c r="BJ92">
+        <v>2.1</v>
+      </c>
+      <c r="BK92">
+        <v>2.05</v>
+      </c>
+      <c r="BL92">
+        <v>1.7</v>
+      </c>
+      <c r="BM92">
+        <v>2.75</v>
+      </c>
+      <c r="BN92">
+        <v>1.37</v>
+      </c>
+      <c r="BO92">
+        <v>3.4</v>
+      </c>
+      <c r="BP92">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7775704</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45807.66666666666</v>
+      </c>
+      <c r="F93">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s">
+        <v>77</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>82</v>
+      </c>
+      <c r="P93" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q93">
+        <v>1.83</v>
+      </c>
+      <c r="R93">
+        <v>2.3</v>
+      </c>
+      <c r="S93">
+        <v>5.8</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
+        <v>3.1</v>
+      </c>
+      <c r="V93">
+        <v>2.61</v>
+      </c>
+      <c r="W93">
+        <v>1.45</v>
+      </c>
+      <c r="X93">
+        <v>6.3</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>1.5</v>
+      </c>
+      <c r="AA93">
+        <v>3.64</v>
+      </c>
+      <c r="AB93">
+        <v>5.6</v>
+      </c>
+      <c r="AC93">
+        <v>1.04</v>
+      </c>
+      <c r="AD93">
+        <v>12</v>
+      </c>
+      <c r="AE93">
+        <v>1.22</v>
+      </c>
+      <c r="AF93">
+        <v>3.9</v>
+      </c>
+      <c r="AG93">
+        <v>1.94</v>
+      </c>
+      <c r="AH93">
+        <v>1.76</v>
+      </c>
+      <c r="AI93">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93">
+        <v>1.95</v>
+      </c>
+      <c r="AK93">
+        <v>1.22</v>
+      </c>
+      <c r="AL93">
+        <v>1.2</v>
+      </c>
+      <c r="AM93">
+        <v>2.45</v>
+      </c>
+      <c r="AN93">
+        <v>2.22</v>
+      </c>
+      <c r="AO93">
+        <v>1.25</v>
+      </c>
+      <c r="AP93">
+        <v>2.1</v>
+      </c>
+      <c r="AQ93">
+        <v>1.22</v>
+      </c>
+      <c r="AR93">
+        <v>1.9</v>
+      </c>
+      <c r="AS93">
+        <v>1.62</v>
+      </c>
+      <c r="AT93">
+        <v>3.52</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>2</v>
+      </c>
+      <c r="AW93">
+        <v>19</v>
+      </c>
+      <c r="AX93">
+        <v>7</v>
+      </c>
+      <c r="AY93">
+        <v>24</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>12</v>
+      </c>
+      <c r="BB93">
+        <v>2</v>
+      </c>
+      <c r="BC93">
+        <v>14</v>
+      </c>
+      <c r="BD93">
+        <v>1.37</v>
+      </c>
+      <c r="BE93">
+        <v>7</v>
+      </c>
+      <c r="BF93">
+        <v>4.16</v>
+      </c>
+      <c r="BG93">
+        <v>1.27</v>
+      </c>
+      <c r="BH93">
+        <v>3.4</v>
+      </c>
+      <c r="BI93">
+        <v>1.5</v>
+      </c>
+      <c r="BJ93">
+        <v>2.48</v>
+      </c>
+      <c r="BK93">
+        <v>1.75</v>
+      </c>
+      <c r="BL93">
+        <v>1.97</v>
+      </c>
+      <c r="BM93">
+        <v>2.2</v>
+      </c>
+      <c r="BN93">
+        <v>1.6</v>
+      </c>
+      <c r="BO93">
+        <v>2.83</v>
+      </c>
+      <c r="BP93">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Republic of Ireland Premier Division_2025.xlsx
@@ -6486,10 +6486,10 @@
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA27">
         <v>4</v>
@@ -14520,10 +14520,10 @@
         <v>4</v>
       </c>
       <c r="AY66">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ66">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA66">
         <v>4</v>
@@ -19464,10 +19464,10 @@
         <v>7</v>
       </c>
       <c r="AY90">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ90">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA90">
         <v>6</v>
@@ -19876,10 +19876,10 @@
         <v>7</v>
       </c>
       <c r="AY92">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AZ92">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA92">
         <v>4</v>
